--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_25_21.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_25_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>154120.1340406744</v>
+        <v>145073.284628089</v>
       </c>
     </row>
     <row r="7">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>16.04668504368032</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>18.21830727030009</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>18.21830727030009</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>18.21830727030009</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>18.21830727030009</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>18.21830727030009</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -712,10 +712,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>18.21830727030009</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>16.04668504368032</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.21830727030009</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>18.21830727030009</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>9.654035823824367</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>4.888458418784966</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -788,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>14.54249424260934</v>
       </c>
       <c r="T3" t="n">
         <v>18.21830727030009</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>18.21830727030009</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>18.21830727030009</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -858,25 +858,25 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
         <v>0.5891238419305855</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>23.50971295904437</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>23.50971295904437</v>
       </c>
       <c r="D5" t="n">
-        <v>20.54879046072614</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>23.50971295904437</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>23.50971295904437</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1585647136001427</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>20.70735517432629</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>23.50971295904437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -983,59 +983,59 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>6.895205188827156</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>23.50971295904437</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>23.50971295904437</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>20.70735517432629</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
         <v>23.50971295904437</v>
       </c>
-      <c r="I6" t="n">
-        <v>10.03700156004394</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.775148425455178</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>23.50971295904437</v>
       </c>
     </row>
     <row r="7">
@@ -1098,22 +1098,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
         <v>3.183833028195925</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>23.86249467691512</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>23.86249467691512</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>23.22935897549875</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>6.998889050745814</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>21.65122101284321</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>14.01919626068105</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>23.86249467691514</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>23.86249467691514</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>23.86249467691514</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1214,19 +1214,19 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>21.01808531142684</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>23.86249467691512</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>23.86249467691512</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.86249467691512</v>
+        <v>23.86249467691514</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>23.86249467691514</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>21.01808531142686</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>23.86249467691514</v>
       </c>
     </row>
     <row r="10">
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>3.479784596074248</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>3.479784596074249</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>280.4293285872151</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>71.14829163864471</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.5240688430865</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>353.5240688430865</v>
+        <v>353.5240688430866</v>
       </c>
       <c r="X11" t="n">
-        <v>353.5240688430865</v>
+        <v>353.5240688430866</v>
       </c>
       <c r="Y11" t="n">
-        <v>311.3839998369907</v>
+        <v>313.3304484542173</v>
       </c>
     </row>
     <row r="12">
@@ -1448,22 +1448,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>50.30231574343387</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>92.35776202894547</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1499,10 +1499,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>66.47844324997878</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>137.416053885909</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>182.8708120119527</v>
@@ -1511,13 +1511,13 @@
         <v>202.9234074721264</v>
       </c>
       <c r="W12" t="n">
-        <v>194.556163395115</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>161.8425727710037</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>54.7570168461353</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="13">
@@ -1533,22 +1533,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>62.15042961683914</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9610376319913</v>
+        <v>144.1518106615883</v>
       </c>
       <c r="H13" t="n">
         <v>136.7271384939178</v>
       </c>
       <c r="I13" t="n">
-        <v>79.7239485572547</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1609,16 +1609,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>353.5240688430865</v>
+        <v>353.5240688430866</v>
       </c>
       <c r="D14" t="n">
-        <v>353.5240688430865</v>
+        <v>311.3839998369905</v>
       </c>
       <c r="E14" t="n">
-        <v>311.3839998369907</v>
+        <v>353.5240688430866</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>353.5240688430866</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>353.5240688430865</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>127.6377393258621</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>116.3308444476703</v>
@@ -1697,10 +1697,10 @@
         <v>103.6549143897921</v>
       </c>
       <c r="F15" t="n">
-        <v>92.70937201392488</v>
+        <v>46.42984168787387</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>92.35776202894547</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1742,19 +1742,19 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>182.8708120119527</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>157.5715080238593</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X15" t="n">
         <v>161.8425727710037</v>
       </c>
       <c r="Y15" t="n">
-        <v>138.2959597602405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1773,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>108.4583601848265</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>40.40174707217873</v>
       </c>
       <c r="G16" t="n">
         <v>163.9610376319913</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>238.199769595833</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>128.8203376050878</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,13 +1852,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>100.7950440187939</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>353.5240688430865</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>353.5240688430865</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>280.4293285872151</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>71.14829163864472</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>212.5354044354234</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.6584024877743</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>353.5240688430866</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>353.5240688430866</v>
       </c>
     </row>
     <row r="18">
@@ -1922,10 +1922,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>127.6377393258621</v>
+        <v>114.6261663733313</v>
       </c>
       <c r="C18" t="n">
-        <v>116.3308444476703</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>102.8015588998678</v>
@@ -1985,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>65.21374599491381</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X18" t="n">
         <v>161.8425727710037</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>136.7271384939178</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2058,10 +2058,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3480569759686</v>
+        <v>26.94106308803394</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>165.2144973240344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>353.5240688430865</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>353.5240688430865</v>
+        <v>353.5240688430866</v>
       </c>
       <c r="D20" t="n">
-        <v>311.3839998369907</v>
+        <v>240.2357081983459</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>353.5240688430866</v>
       </c>
       <c r="F20" t="n">
-        <v>353.5240688430865</v>
+        <v>353.5240688430866</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>71.14829163864471</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2165,19 +2165,19 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G21" t="n">
-        <v>92.35776202894547</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>45.54606290860439</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>63.14058306823049</v>
       </c>
       <c r="U21" t="n">
         <v>182.8708120119527</v>
@@ -2228,7 +2228,7 @@
         <v>161.8425727710037</v>
       </c>
       <c r="Y21" t="n">
-        <v>120.7476890444731</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2295,13 +2295,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>163.6682015819516</v>
+        <v>277.3480569759686</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>165.2144973240345</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>321.7790676728323</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>398.012519220714</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>271.5073585269046</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>51.29628209397735</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>208.7218148893222</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>122.7119591420318</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>57.82042628441737</v>
+        <v>57.82042628441735</v>
       </c>
       <c r="T24" t="n">
         <v>135.5372539824022</v>
@@ -2481,13 +2481,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2532,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3267416342995</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>266.0384087210078</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>85.74836006834889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>398.012519220714</v>
       </c>
       <c r="H26" t="n">
-        <v>146.9043874343016</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>51.29628209397736</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>111.4322213825811</v>
       </c>
       <c r="U26" t="n">
         <v>255.5887081042933</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>57.82042628441737</v>
+        <v>57.82042628441735</v>
       </c>
       <c r="T27" t="n">
         <v>135.5372539824022</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>47.18192993893993</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>132.7856709191597</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>133.2527378018481</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3267416342995</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>208.7218148893222</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.5887081042933</v>
       </c>
       <c r="V29" t="n">
         <v>353.914520725013</v>
@@ -2857,10 +2857,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>358.3022556562798</v>
+        <v>81.36572220981212</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>57.82042628441737</v>
+        <v>57.82042628441735</v>
       </c>
       <c r="T30" t="n">
         <v>135.5372539824022</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>85.93802506833813</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>133.2527378018481</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>132.7856709191597</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3267416342995</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3031,7 +3031,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>419.0596946068497</v>
@@ -3043,7 +3043,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>335.5346762711141</v>
+        <v>305.586219519311</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>51.29628209397736</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -3125,7 +3125,7 @@
         <v>91.89163974602977</v>
       </c>
       <c r="H33" t="n">
-        <v>41.04430296570798</v>
+        <v>41.04430296570791</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3161,7 +3161,7 @@
         <v>57.82042628441737</v>
       </c>
       <c r="T33" t="n">
-        <v>135.5372539824025</v>
+        <v>135.5372539824022</v>
       </c>
       <c r="U33" t="n">
         <v>182.8401460722872</v>
@@ -3195,16 +3195,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>163.5702563680571</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>133.2527378018481</v>
+        <v>77.17912772297242</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>185.0405149303947</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3268,19 +3268,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>113.6045622006815</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>368.3393973762078</v>
+        <v>398.012519220714</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>51.29628209397736</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.5887081042933</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
         <v>407.6027988439302</v>
@@ -3362,7 +3362,7 @@
         <v>91.89163974602977</v>
       </c>
       <c r="H36" t="n">
-        <v>41.04430296570791</v>
+        <v>41.04430296570798</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>57.82042628441737</v>
+        <v>57.82042628441735</v>
       </c>
       <c r="T36" t="n">
         <v>135.5372539824022</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.99226493895029</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>3.242629106322749</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,13 +3477,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>236.5300678317505</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3508,19 +3508,19 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>97.685911778069</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>191.2230455281686</v>
+        <v>398.012519220714</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>271.5073585269046</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>51.29628209397736</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>255.5887081042933</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>392.4274362026566</v>
@@ -3571,7 +3571,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>57.82042628441735</v>
+        <v>57.82042628441737</v>
       </c>
       <c r="T39" t="n">
         <v>135.5372539824022</v>
@@ -3666,13 +3666,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3711,19 +3711,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>150.5856664684936</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>175.300951188508</v>
+        <v>271.2612705660952</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>37.35023911635094</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
@@ -3757,7 +3757,7 @@
         <v>398.012519220714</v>
       </c>
       <c r="H41" t="n">
-        <v>271.5073585269046</v>
+        <v>67.63487284291867</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.5887081042933</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3836,7 +3836,7 @@
         <v>91.89163974602977</v>
       </c>
       <c r="H42" t="n">
-        <v>41.04430296570831</v>
+        <v>41.04430296570798</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>57.82042628441737</v>
+        <v>57.82042628441735</v>
       </c>
       <c r="T42" t="n">
         <v>135.5372539824022</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3954,19 +3954,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3267416342995</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>77.77409969606283</v>
       </c>
       <c r="X43" t="n">
-        <v>239.7726969380732</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3985,16 +3985,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>271.5073585269046</v>
+        <v>126.8128613817917</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>51.29628209397736</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>208.7218148893222</v>
       </c>
       <c r="U44" t="n">
-        <v>255.5887081042933</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>37.09610237771815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4073,7 +4073,7 @@
         <v>91.89163974602977</v>
       </c>
       <c r="H45" t="n">
-        <v>41.04430296570798</v>
+        <v>41.04430296570791</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>101.492284932333</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>208.6758700834472</v>
+        <v>277.3267416342995</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>38.26212573374541</v>
+        <v>56.66445630980611</v>
       </c>
       <c r="C2" t="n">
         <v>38.26212573374541</v>
       </c>
       <c r="D2" t="n">
-        <v>38.26212573374541</v>
+        <v>19.85979515768471</v>
       </c>
       <c r="E2" t="n">
-        <v>38.26212573374541</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="F2" t="n">
-        <v>38.26212573374541</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="G2" t="n">
-        <v>19.85979515768471</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="H2" t="n">
         <v>1.457464581624007</v>
@@ -4333,13 +4333,13 @@
         <v>1.457464581624007</v>
       </c>
       <c r="K2" t="n">
-        <v>5.219099475992264</v>
+        <v>5.219099475992257</v>
       </c>
       <c r="L2" t="n">
         <v>15.88227649088179</v>
       </c>
       <c r="M2" t="n">
-        <v>32.89339907886387</v>
+        <v>32.89339907886386</v>
       </c>
       <c r="N2" t="n">
         <v>50.92952327646097</v>
@@ -4360,22 +4360,22 @@
         <v>72.87322908120038</v>
       </c>
       <c r="T2" t="n">
-        <v>54.47089850513967</v>
+        <v>72.87322908120038</v>
       </c>
       <c r="U2" t="n">
-        <v>38.26212573374541</v>
+        <v>72.87322908120038</v>
       </c>
       <c r="V2" t="n">
-        <v>38.26212573374541</v>
+        <v>72.87322908120038</v>
       </c>
       <c r="W2" t="n">
-        <v>38.26212573374541</v>
+        <v>72.87322908120038</v>
       </c>
       <c r="X2" t="n">
-        <v>38.26212573374541</v>
+        <v>72.87322908120038</v>
       </c>
       <c r="Y2" t="n">
-        <v>38.26212573374541</v>
+        <v>72.87322908120038</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>34.54918328153252</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="C3" t="n">
-        <v>16.14685270547182</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="D3" t="n">
-        <v>6.395301368275488</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="E3" t="n">
-        <v>6.395301368275488</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="F3" t="n">
-        <v>6.395301368275488</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="G3" t="n">
-        <v>6.395301368275488</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="H3" t="n">
-        <v>6.395301368275488</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="I3" t="n">
-        <v>6.395301368275488</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="J3" t="n">
         <v>1.457464581624007</v>
@@ -4415,16 +4415,16 @@
         <v>5.886021080118643</v>
       </c>
       <c r="L3" t="n">
-        <v>19.36817474787377</v>
+        <v>10.6352847439671</v>
       </c>
       <c r="M3" t="n">
-        <v>37.40429894547086</v>
+        <v>28.67140894156419</v>
       </c>
       <c r="N3" t="n">
-        <v>55.44042314306796</v>
+        <v>46.70753313916128</v>
       </c>
       <c r="O3" t="n">
-        <v>71.69888962564607</v>
+        <v>62.96599962173941</v>
       </c>
       <c r="P3" t="n">
         <v>72.87322908120038</v>
@@ -4436,25 +4436,25 @@
         <v>71.35384443365393</v>
       </c>
       <c r="S3" t="n">
-        <v>71.35384443365393</v>
+        <v>56.66445630980611</v>
       </c>
       <c r="T3" t="n">
-        <v>52.95151385759323</v>
+        <v>38.26212573374541</v>
       </c>
       <c r="U3" t="n">
-        <v>52.95151385759323</v>
+        <v>19.85979515768471</v>
       </c>
       <c r="V3" t="n">
-        <v>52.95151385759323</v>
+        <v>19.85979515768471</v>
       </c>
       <c r="W3" t="n">
-        <v>52.95151385759323</v>
+        <v>19.85979515768471</v>
       </c>
       <c r="X3" t="n">
-        <v>52.95151385759323</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="Y3" t="n">
-        <v>52.95151385759323</v>
+        <v>1.457464581624007</v>
       </c>
     </row>
     <row r="4">
@@ -4506,22 +4506,22 @@
         <v>2.05253916943268</v>
       </c>
       <c r="P4" t="n">
-        <v>1.457464581624007</v>
+        <v>2.05253916943268</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.457464581624007</v>
+        <v>2.05253916943268</v>
       </c>
       <c r="R4" t="n">
-        <v>1.457464581624007</v>
+        <v>2.05253916943268</v>
       </c>
       <c r="S4" t="n">
-        <v>1.457464581624007</v>
+        <v>2.05253916943268</v>
       </c>
       <c r="T4" t="n">
-        <v>1.457464581624007</v>
+        <v>2.05253916943268</v>
       </c>
       <c r="U4" t="n">
-        <v>1.457464581624007</v>
+        <v>2.05253916943268</v>
       </c>
       <c r="V4" t="n">
         <v>1.457464581624007</v>
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>46.38431584457255</v>
+        <v>73.12233145807014</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63713103745702</v>
+        <v>49.37514665095461</v>
       </c>
       <c r="D5" t="n">
-        <v>1.88077703672355</v>
+        <v>49.37514665095461</v>
       </c>
       <c r="E5" t="n">
-        <v>1.88077703672355</v>
+        <v>25.62796184383908</v>
       </c>
       <c r="F5" t="n">
         <v>1.88077703672355</v>
@@ -4588,31 +4588,31 @@
         <v>94.0388518361775</v>
       </c>
       <c r="Q5" t="n">
-        <v>93.87868545880362</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="R5" t="n">
-        <v>93.87868545880362</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="S5" t="n">
-        <v>93.87868545880362</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="T5" t="n">
-        <v>93.87868545880362</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="U5" t="n">
-        <v>93.87868545880362</v>
+        <v>73.12233145807014</v>
       </c>
       <c r="V5" t="n">
-        <v>93.87868545880362</v>
+        <v>73.12233145807014</v>
       </c>
       <c r="W5" t="n">
-        <v>93.87868545880362</v>
+        <v>73.12233145807014</v>
       </c>
       <c r="X5" t="n">
-        <v>93.87868545880362</v>
+        <v>73.12233145807014</v>
       </c>
       <c r="Y5" t="n">
-        <v>70.13150065168809</v>
+        <v>73.12233145807014</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>94.0388518361775</v>
+        <v>25.62796184383908</v>
       </c>
       <c r="C6" t="n">
-        <v>94.0388518361775</v>
+        <v>25.62796184383908</v>
       </c>
       <c r="D6" t="n">
-        <v>94.0388518361775</v>
+        <v>25.62796184383908</v>
       </c>
       <c r="E6" t="n">
-        <v>87.07399811008946</v>
+        <v>25.62796184383908</v>
       </c>
       <c r="F6" t="n">
-        <v>63.32681330297392</v>
+        <v>25.62796184383908</v>
       </c>
       <c r="G6" t="n">
-        <v>39.57962849585839</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="H6" t="n">
-        <v>15.83244368874286</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="I6" t="n">
-        <v>5.694058274557063</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="J6" t="n">
         <v>1.88077703672355</v>
@@ -4655,7 +4655,7 @@
         <v>24.2082790785488</v>
       </c>
       <c r="M6" t="n">
-        <v>46.04269444771658</v>
+        <v>39.59522696312115</v>
       </c>
       <c r="N6" t="n">
         <v>62.86984279257508</v>
@@ -4676,22 +4676,22 @@
         <v>94.0388518361775</v>
       </c>
       <c r="T6" t="n">
-        <v>94.0388518361775</v>
+        <v>73.12233145807014</v>
       </c>
       <c r="U6" t="n">
-        <v>94.0388518361775</v>
+        <v>73.12233145807014</v>
       </c>
       <c r="V6" t="n">
-        <v>94.0388518361775</v>
+        <v>49.37514665095461</v>
       </c>
       <c r="W6" t="n">
-        <v>94.0388518361775</v>
+        <v>49.37514665095461</v>
       </c>
       <c r="X6" t="n">
-        <v>94.0388518361775</v>
+        <v>49.37514665095461</v>
       </c>
       <c r="Y6" t="n">
-        <v>94.0388518361775</v>
+        <v>25.62796184383908</v>
       </c>
     </row>
     <row r="7">
@@ -4746,19 +4746,19 @@
         <v>5.096769994497212</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.88077703672355</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="R7" t="n">
-        <v>1.88077703672355</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="S7" t="n">
-        <v>1.88077703672355</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="T7" t="n">
-        <v>1.88077703672355</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="U7" t="n">
-        <v>1.88077703672355</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="V7" t="n">
         <v>1.88077703672355</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>95.44997870766049</v>
+        <v>8.978584473896458</v>
       </c>
       <c r="C8" t="n">
-        <v>71.34644873097855</v>
+        <v>8.978584473896458</v>
       </c>
       <c r="D8" t="n">
-        <v>47.24291875429661</v>
+        <v>8.978584473896458</v>
       </c>
       <c r="E8" t="n">
-        <v>23.77891978914635</v>
+        <v>8.978584473896458</v>
       </c>
       <c r="F8" t="n">
-        <v>23.77891978914635</v>
+        <v>8.978584473896458</v>
       </c>
       <c r="G8" t="n">
-        <v>23.77891978914635</v>
+        <v>1.908999574153211</v>
       </c>
       <c r="H8" t="n">
-        <v>23.77891978914635</v>
+        <v>1.908999574153211</v>
       </c>
       <c r="I8" t="n">
-        <v>1.90899957415321</v>
+        <v>1.908999574153211</v>
       </c>
       <c r="J8" t="n">
-        <v>1.90899957415321</v>
+        <v>1.908999574153211</v>
       </c>
       <c r="K8" t="n">
-        <v>8.629045391172369</v>
+        <v>8.629045391172397</v>
       </c>
       <c r="L8" t="n">
-        <v>22.96239275619887</v>
+        <v>22.96239275619892</v>
       </c>
       <c r="M8" t="n">
-        <v>44.05728702482659</v>
+        <v>44.05728702482664</v>
       </c>
       <c r="N8" t="n">
-        <v>66.243262598314</v>
+        <v>66.24326259831408</v>
       </c>
       <c r="O8" t="n">
-        <v>85.02587025944861</v>
+        <v>85.02587025944867</v>
       </c>
       <c r="P8" t="n">
-        <v>95.44997870766049</v>
+        <v>95.44997870766055</v>
       </c>
       <c r="Q8" t="n">
-        <v>95.44997870766049</v>
+        <v>95.44997870766055</v>
       </c>
       <c r="R8" t="n">
-        <v>95.44997870766049</v>
+        <v>81.28917440394233</v>
       </c>
       <c r="S8" t="n">
-        <v>95.44997870766049</v>
+        <v>57.18564442726037</v>
       </c>
       <c r="T8" t="n">
-        <v>95.44997870766049</v>
+        <v>57.18564442726037</v>
       </c>
       <c r="U8" t="n">
-        <v>95.44997870766049</v>
+        <v>33.08211445057842</v>
       </c>
       <c r="V8" t="n">
-        <v>95.44997870766049</v>
+        <v>33.08211445057842</v>
       </c>
       <c r="W8" t="n">
-        <v>95.44997870766049</v>
+        <v>8.978584473896458</v>
       </c>
       <c r="X8" t="n">
-        <v>95.44997870766049</v>
+        <v>8.978584473896458</v>
       </c>
       <c r="Y8" t="n">
-        <v>95.44997870766049</v>
+        <v>8.978584473896458</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>95.44997870766049</v>
+        <v>50.11605952751712</v>
       </c>
       <c r="C9" t="n">
-        <v>74.21958950419904</v>
+        <v>50.11605952751712</v>
       </c>
       <c r="D9" t="n">
-        <v>50.11605952751709</v>
+        <v>50.11605952751712</v>
       </c>
       <c r="E9" t="n">
-        <v>26.01252955083515</v>
+        <v>50.11605952751712</v>
       </c>
       <c r="F9" t="n">
-        <v>1.90899957415321</v>
+        <v>26.01252955083517</v>
       </c>
       <c r="G9" t="n">
-        <v>1.90899957415321</v>
+        <v>1.908999574153211</v>
       </c>
       <c r="H9" t="n">
-        <v>1.90899957415321</v>
+        <v>1.908999574153211</v>
       </c>
       <c r="I9" t="n">
-        <v>1.90899957415321</v>
+        <v>1.908999574153211</v>
       </c>
       <c r="J9" t="n">
-        <v>1.90899957415321</v>
+        <v>1.908999574153211</v>
       </c>
       <c r="K9" t="n">
-        <v>2.008730241931339</v>
+        <v>8.346945923252312</v>
       </c>
       <c r="L9" t="n">
-        <v>18.19275653793358</v>
+        <v>24.53097221925455</v>
       </c>
       <c r="M9" t="n">
-        <v>40.22424295215662</v>
+        <v>46.56245863347759</v>
       </c>
       <c r="N9" t="n">
-        <v>63.84811268230258</v>
+        <v>63.84811268230264</v>
       </c>
       <c r="O9" t="n">
-        <v>83.0672595903836</v>
+        <v>83.06725959038366</v>
       </c>
       <c r="P9" t="n">
-        <v>95.35069610950768</v>
+        <v>95.35069610950774</v>
       </c>
       <c r="Q9" t="n">
-        <v>95.44997870766049</v>
+        <v>95.44997870766055</v>
       </c>
       <c r="R9" t="n">
-        <v>95.44997870766049</v>
+        <v>95.44997870766055</v>
       </c>
       <c r="S9" t="n">
-        <v>95.44997870766049</v>
+        <v>95.44997870766055</v>
       </c>
       <c r="T9" t="n">
-        <v>95.44997870766049</v>
+        <v>74.21958950419908</v>
       </c>
       <c r="U9" t="n">
-        <v>95.44997870766049</v>
+        <v>74.21958950419908</v>
       </c>
       <c r="V9" t="n">
-        <v>95.44997870766049</v>
+        <v>74.21958950419908</v>
       </c>
       <c r="W9" t="n">
-        <v>95.44997870766049</v>
+        <v>74.21958950419908</v>
       </c>
       <c r="X9" t="n">
-        <v>95.44997870766049</v>
+        <v>74.21958950419908</v>
       </c>
       <c r="Y9" t="n">
-        <v>95.44997870766049</v>
+        <v>50.11605952751712</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.423933509581744</v>
+        <v>1.908999574153211</v>
       </c>
       <c r="C10" t="n">
-        <v>5.423933509581744</v>
+        <v>1.908999574153211</v>
       </c>
       <c r="D10" t="n">
-        <v>5.423933509581744</v>
+        <v>1.908999574153211</v>
       </c>
       <c r="E10" t="n">
-        <v>5.423933509581744</v>
+        <v>1.908999574153211</v>
       </c>
       <c r="F10" t="n">
-        <v>5.423933509581744</v>
+        <v>1.908999574153211</v>
       </c>
       <c r="G10" t="n">
-        <v>5.423933509581744</v>
+        <v>1.908999574153211</v>
       </c>
       <c r="H10" t="n">
-        <v>5.423933509581744</v>
+        <v>1.908999574153211</v>
       </c>
       <c r="I10" t="n">
-        <v>5.423933509581744</v>
+        <v>1.908999574153211</v>
       </c>
       <c r="J10" t="n">
-        <v>5.423933509581744</v>
+        <v>1.908999574153211</v>
       </c>
       <c r="K10" t="n">
-        <v>1.90899957415321</v>
+        <v>1.908999574153211</v>
       </c>
       <c r="L10" t="n">
-        <v>2.295468180757751</v>
+        <v>2.295468180757753</v>
       </c>
       <c r="M10" t="n">
-        <v>3.232416129329167</v>
+        <v>3.232416129329168</v>
       </c>
       <c r="N10" t="n">
-        <v>5.423933509581744</v>
+        <v>5.423933509581746</v>
       </c>
       <c r="O10" t="n">
-        <v>5.423933509581744</v>
+        <v>5.423933509581746</v>
       </c>
       <c r="P10" t="n">
-        <v>5.423933509581744</v>
+        <v>5.423933509581746</v>
       </c>
       <c r="Q10" t="n">
-        <v>5.423933509581744</v>
+        <v>5.423933509581746</v>
       </c>
       <c r="R10" t="n">
-        <v>5.423933509581744</v>
+        <v>5.423933509581746</v>
       </c>
       <c r="S10" t="n">
-        <v>5.423933509581744</v>
+        <v>5.423933509581746</v>
       </c>
       <c r="T10" t="n">
-        <v>5.423933509581744</v>
+        <v>5.423933509581746</v>
       </c>
       <c r="U10" t="n">
-        <v>5.423933509581744</v>
+        <v>5.423933509581746</v>
       </c>
       <c r="V10" t="n">
-        <v>5.423933509581744</v>
+        <v>1.908999574153211</v>
       </c>
       <c r="W10" t="n">
-        <v>5.423933509581744</v>
+        <v>1.908999574153211</v>
       </c>
       <c r="X10" t="n">
-        <v>5.423933509581744</v>
+        <v>1.908999574153211</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.423933509581744</v>
+        <v>1.908999574153211</v>
       </c>
     </row>
     <row r="11">
@@ -5017,46 +5017,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>28.28192550744692</v>
+        <v>311.543873575341</v>
       </c>
       <c r="C11" t="n">
-        <v>28.28192550744692</v>
+        <v>311.543873575341</v>
       </c>
       <c r="D11" t="n">
-        <v>28.28192550744692</v>
+        <v>311.543873575341</v>
       </c>
       <c r="E11" t="n">
-        <v>28.28192550744692</v>
+        <v>311.543873575341</v>
       </c>
       <c r="F11" t="n">
-        <v>28.28192550744692</v>
+        <v>311.543873575341</v>
       </c>
       <c r="G11" t="n">
-        <v>28.28192550744692</v>
+        <v>311.543873575341</v>
       </c>
       <c r="H11" t="n">
-        <v>28.28192550744692</v>
+        <v>28.28192550744693</v>
       </c>
       <c r="I11" t="n">
-        <v>47.97023148689573</v>
+        <v>47.97023148689618</v>
       </c>
       <c r="J11" t="n">
-        <v>137.4855014315475</v>
+        <v>137.4855014315481</v>
       </c>
       <c r="K11" t="n">
-        <v>279.8906958536294</v>
+        <v>279.8906958536301</v>
       </c>
       <c r="L11" t="n">
-        <v>462.5534681648029</v>
+        <v>462.5534681648035</v>
       </c>
       <c r="M11" t="n">
-        <v>670.9472812939102</v>
+        <v>670.9472812939107</v>
       </c>
       <c r="N11" t="n">
-        <v>883.4628680500307</v>
+        <v>883.4628680500313</v>
       </c>
       <c r="O11" t="n">
-        <v>1081.968330438571</v>
+        <v>1081.968330438572</v>
       </c>
       <c r="P11" t="n">
         <v>1245.781737361426</v>
@@ -5068,25 +5068,25 @@
         <v>1414.096275372346</v>
       </c>
       <c r="S11" t="n">
-        <v>1414.096275372346</v>
+        <v>1342.22931412119</v>
       </c>
       <c r="T11" t="n">
-        <v>1414.096275372346</v>
+        <v>1342.22931412119</v>
       </c>
       <c r="U11" t="n">
-        <v>1414.096275372346</v>
+        <v>1342.22931412119</v>
       </c>
       <c r="V11" t="n">
-        <v>1057.001256338925</v>
+        <v>1342.22931412119</v>
       </c>
       <c r="W11" t="n">
-        <v>699.9062373055046</v>
+        <v>985.1342950877693</v>
       </c>
       <c r="X11" t="n">
-        <v>342.811218272084</v>
+        <v>628.0392760543484</v>
       </c>
       <c r="Y11" t="n">
-        <v>28.28192550744692</v>
+        <v>311.543873575341</v>
       </c>
     </row>
     <row r="12">
@@ -5096,34 +5096,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>28.28192550744692</v>
+        <v>380.9249063781937</v>
       </c>
       <c r="C12" t="n">
-        <v>28.28192550744692</v>
+        <v>330.1144864353312</v>
       </c>
       <c r="D12" t="n">
-        <v>28.28192550744692</v>
+        <v>226.2745279506162</v>
       </c>
       <c r="E12" t="n">
-        <v>28.28192550744692</v>
+        <v>121.5725942235535</v>
       </c>
       <c r="F12" t="n">
-        <v>28.28192550744692</v>
+        <v>121.5725942235535</v>
       </c>
       <c r="G12" t="n">
-        <v>28.28192550744692</v>
+        <v>28.28192550744693</v>
       </c>
       <c r="H12" t="n">
-        <v>28.28192550744692</v>
+        <v>28.28192550744693</v>
       </c>
       <c r="I12" t="n">
-        <v>38.02192457613896</v>
+        <v>38.02192457613898</v>
       </c>
       <c r="J12" t="n">
-        <v>88.27870598367119</v>
+        <v>88.27870598367122</v>
       </c>
       <c r="K12" t="n">
-        <v>186.8757092093129</v>
+        <v>186.875709209313</v>
       </c>
       <c r="L12" t="n">
         <v>326.9789606098387</v>
@@ -5132,13 +5132,13 @@
         <v>493.6183378287951</v>
       </c>
       <c r="N12" t="n">
-        <v>667.0095683106038</v>
+        <v>667.0095683106039</v>
       </c>
       <c r="O12" t="n">
-        <v>822.0179527551979</v>
+        <v>822.0179527551982</v>
       </c>
       <c r="P12" t="n">
-        <v>943.2842237880226</v>
+        <v>943.2842237880228</v>
       </c>
       <c r="Q12" t="n">
         <v>1016.235645108366</v>
@@ -5147,25 +5147,25 @@
         <v>1039.235935236963</v>
       </c>
       <c r="S12" t="n">
-        <v>972.0859925602166</v>
+        <v>1039.235935236963</v>
       </c>
       <c r="T12" t="n">
-        <v>833.2818977259651</v>
+        <v>1039.235935236963</v>
       </c>
       <c r="U12" t="n">
-        <v>648.5639057946998</v>
+        <v>854.5179433056978</v>
       </c>
       <c r="V12" t="n">
-        <v>443.5907669339661</v>
+        <v>649.544804444964</v>
       </c>
       <c r="W12" t="n">
-        <v>247.0693897671833</v>
+        <v>649.544804444964</v>
       </c>
       <c r="X12" t="n">
-        <v>83.59204353384621</v>
+        <v>649.544804444964</v>
       </c>
       <c r="Y12" t="n">
-        <v>28.28192550744692</v>
+        <v>509.8519157982564</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>475.3148086387631</v>
+        <v>475.3148086387632</v>
       </c>
       <c r="C13" t="n">
-        <v>475.3148086387631</v>
+        <v>475.3148086387632</v>
       </c>
       <c r="D13" t="n">
-        <v>475.3148086387631</v>
+        <v>311.9980357655339</v>
       </c>
       <c r="E13" t="n">
-        <v>475.3148086387631</v>
+        <v>311.9980357655339</v>
       </c>
       <c r="F13" t="n">
-        <v>412.5365969045822</v>
+        <v>311.9980357655339</v>
       </c>
       <c r="G13" t="n">
-        <v>246.919387175298</v>
+        <v>166.390146208374</v>
       </c>
       <c r="H13" t="n">
-        <v>108.8111664743709</v>
+        <v>28.28192550744693</v>
       </c>
       <c r="I13" t="n">
-        <v>28.28192550744692</v>
+        <v>28.28192550744693</v>
       </c>
       <c r="J13" t="n">
-        <v>52.18246991706596</v>
+        <v>52.18246991706598</v>
       </c>
       <c r="K13" t="n">
-        <v>104.2768025790822</v>
+        <v>104.2768025790823</v>
       </c>
       <c r="L13" t="n">
-        <v>175.7993050620775</v>
+        <v>175.7993050620776</v>
       </c>
       <c r="M13" t="n">
-        <v>251.7392267253734</v>
+        <v>251.7392267253735</v>
       </c>
       <c r="N13" t="n">
-        <v>327.1503147453035</v>
+        <v>327.1503147453036</v>
       </c>
       <c r="O13" t="n">
-        <v>393.5037832208843</v>
+        <v>393.5037832208844</v>
       </c>
       <c r="P13" t="n">
-        <v>447.1830681082849</v>
+        <v>447.1830681082851</v>
       </c>
       <c r="Q13" t="n">
-        <v>475.3148086387631</v>
+        <v>475.3148086387632</v>
       </c>
       <c r="R13" t="n">
-        <v>475.3148086387631</v>
+        <v>475.3148086387632</v>
       </c>
       <c r="S13" t="n">
-        <v>475.3148086387631</v>
+        <v>475.3148086387632</v>
       </c>
       <c r="T13" t="n">
-        <v>475.3148086387631</v>
+        <v>475.3148086387632</v>
       </c>
       <c r="U13" t="n">
-        <v>475.3148086387631</v>
+        <v>475.3148086387632</v>
       </c>
       <c r="V13" t="n">
-        <v>475.3148086387631</v>
+        <v>475.3148086387632</v>
       </c>
       <c r="W13" t="n">
-        <v>475.3148086387631</v>
+        <v>475.3148086387632</v>
       </c>
       <c r="X13" t="n">
-        <v>475.3148086387631</v>
+        <v>475.3148086387632</v>
       </c>
       <c r="Y13" t="n">
-        <v>475.3148086387631</v>
+        <v>475.3148086387632</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>1414.096275372346</v>
+      </c>
+      <c r="C14" t="n">
         <v>1057.001256338925</v>
       </c>
-      <c r="C14" t="n">
-        <v>699.9062373055046</v>
-      </c>
       <c r="D14" t="n">
-        <v>342.811218272084</v>
+        <v>742.4719635742886</v>
       </c>
       <c r="E14" t="n">
-        <v>28.28192550744692</v>
+        <v>385.3769445408678</v>
       </c>
       <c r="F14" t="n">
-        <v>28.28192550744692</v>
+        <v>28.28192550744693</v>
       </c>
       <c r="G14" t="n">
-        <v>28.28192550744692</v>
+        <v>28.28192550744693</v>
       </c>
       <c r="H14" t="n">
-        <v>28.28192550744692</v>
+        <v>28.28192550744693</v>
       </c>
       <c r="I14" t="n">
-        <v>47.97023148689607</v>
+        <v>47.97023148689595</v>
       </c>
       <c r="J14" t="n">
-        <v>137.485501431548</v>
+        <v>137.4855014315478</v>
       </c>
       <c r="K14" t="n">
-        <v>279.8906958536299</v>
+        <v>279.8906958536298</v>
       </c>
       <c r="L14" t="n">
         <v>462.5534681648033</v>
       </c>
       <c r="M14" t="n">
-        <v>670.9472812939106</v>
+        <v>670.9472812939107</v>
       </c>
       <c r="N14" t="n">
-        <v>883.462868050031</v>
+        <v>883.4628680500311</v>
       </c>
       <c r="O14" t="n">
         <v>1081.968330438572</v>
@@ -5320,10 +5320,10 @@
         <v>1414.096275372346</v>
       </c>
       <c r="X14" t="n">
-        <v>1057.001256338925</v>
+        <v>1414.096275372346</v>
       </c>
       <c r="Y14" t="n">
-        <v>1057.001256338925</v>
+        <v>1414.096275372346</v>
       </c>
     </row>
     <row r="15">
@@ -5333,34 +5333,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>447.9755515188157</v>
+        <v>494.5192199055779</v>
       </c>
       <c r="C15" t="n">
-        <v>330.4696480363205</v>
+        <v>377.0133164230826</v>
       </c>
       <c r="D15" t="n">
-        <v>226.6296895516055</v>
+        <v>273.1733579383676</v>
       </c>
       <c r="E15" t="n">
-        <v>121.9277558245428</v>
+        <v>168.4714242113048</v>
       </c>
       <c r="F15" t="n">
-        <v>28.28192550744692</v>
+        <v>121.5725942235535</v>
       </c>
       <c r="G15" t="n">
-        <v>28.28192550744692</v>
+        <v>28.28192550744693</v>
       </c>
       <c r="H15" t="n">
-        <v>28.28192550744692</v>
+        <v>28.28192550744693</v>
       </c>
       <c r="I15" t="n">
-        <v>38.02192457613896</v>
+        <v>38.02192457613898</v>
       </c>
       <c r="J15" t="n">
-        <v>88.27870598367119</v>
+        <v>88.27870598367122</v>
       </c>
       <c r="K15" t="n">
-        <v>186.8757092093129</v>
+        <v>186.875709209313</v>
       </c>
       <c r="L15" t="n">
         <v>326.9789606098387</v>
@@ -5369,13 +5369,13 @@
         <v>493.6183378287951</v>
       </c>
       <c r="N15" t="n">
-        <v>667.0095683106038</v>
+        <v>667.0095683106039</v>
       </c>
       <c r="O15" t="n">
-        <v>822.0179527551979</v>
+        <v>822.0179527551982</v>
       </c>
       <c r="P15" t="n">
-        <v>943.2842237880226</v>
+        <v>943.2842237880228</v>
       </c>
       <c r="Q15" t="n">
         <v>1016.235645108366</v>
@@ -5390,19 +5390,19 @@
         <v>1039.235935236963</v>
       </c>
       <c r="U15" t="n">
-        <v>1039.235935236963</v>
+        <v>854.5179433056978</v>
       </c>
       <c r="V15" t="n">
-        <v>1039.235935236963</v>
+        <v>854.5179433056978</v>
       </c>
       <c r="W15" t="n">
-        <v>880.0727958189232</v>
+        <v>657.996566138915</v>
       </c>
       <c r="X15" t="n">
-        <v>716.595449585586</v>
+        <v>494.5192199055779</v>
       </c>
       <c r="Y15" t="n">
-        <v>576.9025609388784</v>
+        <v>494.5192199055779</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>475.3148086387631</v>
+        <v>234.7089807641844</v>
       </c>
       <c r="C16" t="n">
-        <v>475.3148086387631</v>
+        <v>234.7089807641844</v>
       </c>
       <c r="D16" t="n">
-        <v>475.3148086387631</v>
+        <v>234.7089807641844</v>
       </c>
       <c r="E16" t="n">
-        <v>365.7609094621707</v>
+        <v>234.7089807641844</v>
       </c>
       <c r="F16" t="n">
         <v>193.8991352367311</v>
       </c>
       <c r="G16" t="n">
-        <v>28.28192550744692</v>
+        <v>28.28192550744693</v>
       </c>
       <c r="H16" t="n">
-        <v>28.28192550744692</v>
+        <v>28.28192550744693</v>
       </c>
       <c r="I16" t="n">
-        <v>28.28192550744692</v>
+        <v>28.28192550744693</v>
       </c>
       <c r="J16" t="n">
-        <v>52.18246991706596</v>
+        <v>52.18246991706598</v>
       </c>
       <c r="K16" t="n">
-        <v>104.2768025790822</v>
+        <v>104.2768025790823</v>
       </c>
       <c r="L16" t="n">
-        <v>175.7993050620775</v>
+        <v>175.7993050620776</v>
       </c>
       <c r="M16" t="n">
-        <v>251.7392267253734</v>
+        <v>251.7392267253735</v>
       </c>
       <c r="N16" t="n">
-        <v>327.1503147453035</v>
+        <v>327.1503147453036</v>
       </c>
       <c r="O16" t="n">
-        <v>393.5037832208843</v>
+        <v>393.5037832208844</v>
       </c>
       <c r="P16" t="n">
-        <v>447.1830681082849</v>
+        <v>447.1830681082851</v>
       </c>
       <c r="Q16" t="n">
-        <v>475.3148086387631</v>
+        <v>475.3148086387632</v>
       </c>
       <c r="R16" t="n">
-        <v>475.3148086387631</v>
+        <v>475.3148086387632</v>
       </c>
       <c r="S16" t="n">
-        <v>475.3148086387631</v>
+        <v>475.3148086387632</v>
       </c>
       <c r="T16" t="n">
-        <v>475.3148086387631</v>
+        <v>234.7089807641844</v>
       </c>
       <c r="U16" t="n">
-        <v>475.3148086387631</v>
+        <v>234.7089807641844</v>
       </c>
       <c r="V16" t="n">
-        <v>475.3148086387631</v>
+        <v>234.7089807641844</v>
       </c>
       <c r="W16" t="n">
-        <v>475.3148086387631</v>
+        <v>234.7089807641844</v>
       </c>
       <c r="X16" t="n">
-        <v>475.3148086387631</v>
+        <v>234.7089807641844</v>
       </c>
       <c r="Y16" t="n">
-        <v>475.3148086387631</v>
+        <v>234.7089807641844</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1127.547087418742</v>
+        <v>311.543873575341</v>
       </c>
       <c r="C17" t="n">
-        <v>1127.547087418742</v>
+        <v>311.543873575341</v>
       </c>
       <c r="D17" t="n">
-        <v>1127.547087418742</v>
+        <v>311.543873575341</v>
       </c>
       <c r="E17" t="n">
-        <v>1025.733911642182</v>
+        <v>311.543873575341</v>
       </c>
       <c r="F17" t="n">
-        <v>668.6388926087616</v>
+        <v>311.543873575341</v>
       </c>
       <c r="G17" t="n">
         <v>311.543873575341</v>
       </c>
       <c r="H17" t="n">
-        <v>28.28192550744692</v>
+        <v>28.28192550744693</v>
       </c>
       <c r="I17" t="n">
         <v>47.97023148689607</v>
@@ -5521,13 +5521,13 @@
         <v>279.8906958536299</v>
       </c>
       <c r="L17" t="n">
-        <v>462.5534681648033</v>
+        <v>462.5534681648035</v>
       </c>
       <c r="M17" t="n">
-        <v>670.9472812939106</v>
+        <v>670.9472812939108</v>
       </c>
       <c r="N17" t="n">
-        <v>883.462868050031</v>
+        <v>883.4628680500314</v>
       </c>
       <c r="O17" t="n">
         <v>1081.968330438572</v>
@@ -5542,25 +5542,25 @@
         <v>1414.096275372346</v>
       </c>
       <c r="S17" t="n">
-        <v>1342.22931412119</v>
+        <v>1414.096275372346</v>
       </c>
       <c r="T17" t="n">
-        <v>1127.547087418742</v>
+        <v>1414.096275372346</v>
       </c>
       <c r="U17" t="n">
-        <v>1127.547087418742</v>
+        <v>1155.855464778635</v>
       </c>
       <c r="V17" t="n">
-        <v>1127.547087418742</v>
+        <v>1155.855464778635</v>
       </c>
       <c r="W17" t="n">
-        <v>1127.547087418742</v>
+        <v>798.7604457452142</v>
       </c>
       <c r="X17" t="n">
-        <v>1127.547087418742</v>
+        <v>798.7604457452142</v>
       </c>
       <c r="Y17" t="n">
-        <v>1127.547087418742</v>
+        <v>441.6654267117933</v>
       </c>
     </row>
     <row r="18">
@@ -5570,10 +5570,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>541.2662202349222</v>
+        <v>423.7603167524271</v>
       </c>
       <c r="C18" t="n">
-        <v>423.760316752427</v>
+        <v>423.7603167524271</v>
       </c>
       <c r="D18" t="n">
         <v>319.9203582677121</v>
@@ -5585,34 +5585,34 @@
         <v>121.5725942235535</v>
       </c>
       <c r="G18" t="n">
-        <v>28.28192550744692</v>
+        <v>28.28192550744693</v>
       </c>
       <c r="H18" t="n">
-        <v>28.28192550744692</v>
+        <v>28.28192550744693</v>
       </c>
       <c r="I18" t="n">
-        <v>38.02192457613896</v>
+        <v>38.02192457613899</v>
       </c>
       <c r="J18" t="n">
-        <v>88.27870598367119</v>
+        <v>88.27870598367123</v>
       </c>
       <c r="K18" t="n">
-        <v>186.8757092093129</v>
+        <v>186.875709209313</v>
       </c>
       <c r="L18" t="n">
-        <v>326.9789606098387</v>
+        <v>326.9789606098389</v>
       </c>
       <c r="M18" t="n">
-        <v>493.6183378287951</v>
+        <v>493.6183378287953</v>
       </c>
       <c r="N18" t="n">
-        <v>667.0095683106038</v>
+        <v>667.009568310604</v>
       </c>
       <c r="O18" t="n">
-        <v>822.0179527551979</v>
+        <v>822.0179527551983</v>
       </c>
       <c r="P18" t="n">
-        <v>943.2842237880226</v>
+        <v>943.2842237880229</v>
       </c>
       <c r="Q18" t="n">
         <v>1016.235645108366</v>
@@ -5633,13 +5633,13 @@
         <v>1039.235935236963</v>
       </c>
       <c r="W18" t="n">
-        <v>973.3634645350297</v>
+        <v>842.7145580701803</v>
       </c>
       <c r="X18" t="n">
-        <v>809.8861183016926</v>
+        <v>679.2372118368431</v>
       </c>
       <c r="Y18" t="n">
-        <v>670.193229654985</v>
+        <v>539.5443231901355</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>28.28192550744692</v>
+        <v>166.390146208374</v>
       </c>
       <c r="C19" t="n">
-        <v>28.28192550744692</v>
+        <v>166.390146208374</v>
       </c>
       <c r="D19" t="n">
-        <v>28.28192550744692</v>
+        <v>166.390146208374</v>
       </c>
       <c r="E19" t="n">
-        <v>28.28192550744692</v>
+        <v>166.390146208374</v>
       </c>
       <c r="F19" t="n">
-        <v>28.28192550744692</v>
+        <v>166.390146208374</v>
       </c>
       <c r="G19" t="n">
-        <v>28.28192550744692</v>
+        <v>166.390146208374</v>
       </c>
       <c r="H19" t="n">
-        <v>28.28192550744692</v>
+        <v>28.28192550744693</v>
       </c>
       <c r="I19" t="n">
-        <v>28.28192550744692</v>
+        <v>28.28192550744693</v>
       </c>
       <c r="J19" t="n">
-        <v>52.18246991706596</v>
+        <v>52.18246991706599</v>
       </c>
       <c r="K19" t="n">
-        <v>104.2768025790822</v>
+        <v>104.2768025790823</v>
       </c>
       <c r="L19" t="n">
-        <v>175.7993050620775</v>
+        <v>175.7993050620776</v>
       </c>
       <c r="M19" t="n">
-        <v>251.7392267253734</v>
+        <v>251.7392267253735</v>
       </c>
       <c r="N19" t="n">
-        <v>327.1503147453035</v>
+        <v>327.1503147453036</v>
       </c>
       <c r="O19" t="n">
-        <v>393.5037832208843</v>
+        <v>393.5037832208844</v>
       </c>
       <c r="P19" t="n">
-        <v>447.1830681082849</v>
+        <v>447.1830681082851</v>
       </c>
       <c r="Q19" t="n">
-        <v>475.3148086387631</v>
+        <v>475.3148086387632</v>
       </c>
       <c r="R19" t="n">
-        <v>475.3148086387631</v>
+        <v>475.3148086387632</v>
       </c>
       <c r="S19" t="n">
-        <v>475.3148086387631</v>
+        <v>475.3148086387632</v>
       </c>
       <c r="T19" t="n">
-        <v>475.3148086387631</v>
+        <v>475.3148086387632</v>
       </c>
       <c r="U19" t="n">
-        <v>195.1652561377847</v>
+        <v>448.1016136003451</v>
       </c>
       <c r="V19" t="n">
-        <v>195.1652561377847</v>
+        <v>166.390146208374</v>
       </c>
       <c r="W19" t="n">
-        <v>195.1652561377847</v>
+        <v>166.390146208374</v>
       </c>
       <c r="X19" t="n">
-        <v>195.1652561377847</v>
+        <v>166.390146208374</v>
       </c>
       <c r="Y19" t="n">
-        <v>28.28192550744692</v>
+        <v>166.390146208374</v>
       </c>
     </row>
     <row r="20">
@@ -5728,46 +5728,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1057.001256338925</v>
+        <v>1342.22931412119</v>
       </c>
       <c r="C20" t="n">
-        <v>699.9062373055046</v>
+        <v>985.1342950877695</v>
       </c>
       <c r="D20" t="n">
-        <v>385.3769445408676</v>
+        <v>742.4719635742888</v>
       </c>
       <c r="E20" t="n">
-        <v>385.3769445408676</v>
+        <v>385.3769445408678</v>
       </c>
       <c r="F20" t="n">
-        <v>28.28192550744692</v>
+        <v>28.28192550744693</v>
       </c>
       <c r="G20" t="n">
-        <v>28.28192550744692</v>
+        <v>28.28192550744693</v>
       </c>
       <c r="H20" t="n">
-        <v>28.28192550744692</v>
+        <v>28.28192550744693</v>
       </c>
       <c r="I20" t="n">
-        <v>47.97023148689595</v>
+        <v>47.97023148689607</v>
       </c>
       <c r="J20" t="n">
-        <v>137.4855014315478</v>
+        <v>137.485501431548</v>
       </c>
       <c r="K20" t="n">
-        <v>279.8906958536297</v>
+        <v>279.8906958536299</v>
       </c>
       <c r="L20" t="n">
-        <v>462.5534681648031</v>
+        <v>462.5534681648035</v>
       </c>
       <c r="M20" t="n">
-        <v>670.9472812939104</v>
+        <v>670.9472812939107</v>
       </c>
       <c r="N20" t="n">
-        <v>883.4628680500308</v>
+        <v>883.4628680500313</v>
       </c>
       <c r="O20" t="n">
-        <v>1081.968330438571</v>
+        <v>1081.968330438572</v>
       </c>
       <c r="P20" t="n">
         <v>1245.781737361426</v>
@@ -5776,28 +5776,28 @@
         <v>1360.970712461806</v>
       </c>
       <c r="R20" t="n">
-        <v>1414.096275372346</v>
+        <v>1414.096275372347</v>
       </c>
       <c r="S20" t="n">
-        <v>1414.096275372346</v>
+        <v>1342.22931412119</v>
       </c>
       <c r="T20" t="n">
-        <v>1414.096275372346</v>
+        <v>1342.22931412119</v>
       </c>
       <c r="U20" t="n">
-        <v>1414.096275372346</v>
+        <v>1342.22931412119</v>
       </c>
       <c r="V20" t="n">
-        <v>1414.096275372346</v>
+        <v>1342.22931412119</v>
       </c>
       <c r="W20" t="n">
-        <v>1414.096275372346</v>
+        <v>1342.22931412119</v>
       </c>
       <c r="X20" t="n">
-        <v>1414.096275372346</v>
+        <v>1342.22931412119</v>
       </c>
       <c r="Y20" t="n">
-        <v>1414.096275372346</v>
+        <v>1342.22931412119</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>167.5787183736589</v>
+        <v>225.7677143092577</v>
       </c>
       <c r="C21" t="n">
-        <v>167.5787183736589</v>
+        <v>225.7677143092577</v>
       </c>
       <c r="D21" t="n">
-        <v>167.5787183736589</v>
+        <v>121.9277558245428</v>
       </c>
       <c r="E21" t="n">
-        <v>167.5787183736589</v>
+        <v>121.9277558245428</v>
       </c>
       <c r="F21" t="n">
-        <v>167.5787183736589</v>
+        <v>28.28192550744693</v>
       </c>
       <c r="G21" t="n">
-        <v>74.28804965755236</v>
+        <v>28.28192550744693</v>
       </c>
       <c r="H21" t="n">
-        <v>28.28192550744692</v>
+        <v>28.28192550744693</v>
       </c>
       <c r="I21" t="n">
-        <v>38.02192457613896</v>
+        <v>38.02192457613899</v>
       </c>
       <c r="J21" t="n">
-        <v>88.27870598367119</v>
+        <v>88.27870598367123</v>
       </c>
       <c r="K21" t="n">
-        <v>186.8757092093129</v>
+        <v>186.875709209313</v>
       </c>
       <c r="L21" t="n">
-        <v>326.9789606098387</v>
+        <v>326.9789606098389</v>
       </c>
       <c r="M21" t="n">
-        <v>493.6183378287951</v>
+        <v>493.6183378287953</v>
       </c>
       <c r="N21" t="n">
-        <v>667.0095683106038</v>
+        <v>667.009568310604</v>
       </c>
       <c r="O21" t="n">
-        <v>822.0179527551979</v>
+        <v>822.0179527551983</v>
       </c>
       <c r="P21" t="n">
-        <v>943.2842237880226</v>
+        <v>943.2842237880229</v>
       </c>
       <c r="Q21" t="n">
         <v>1016.235645108366</v>
@@ -5861,22 +5861,22 @@
         <v>1039.235935236963</v>
       </c>
       <c r="T21" t="n">
-        <v>1039.235935236963</v>
+        <v>975.4575685013767</v>
       </c>
       <c r="U21" t="n">
-        <v>854.5179433056976</v>
+        <v>790.7395765701115</v>
       </c>
       <c r="V21" t="n">
-        <v>649.5448044449638</v>
+        <v>585.7664377093777</v>
       </c>
       <c r="W21" t="n">
-        <v>453.023427278181</v>
+        <v>389.2450605425948</v>
       </c>
       <c r="X21" t="n">
-        <v>289.5460810448438</v>
+        <v>225.7677143092577</v>
       </c>
       <c r="Y21" t="n">
-        <v>167.5787183736589</v>
+        <v>225.7677143092577</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>28.28192550744692</v>
+        <v>28.28192550744693</v>
       </c>
       <c r="C22" t="n">
-        <v>28.28192550744692</v>
+        <v>28.28192550744693</v>
       </c>
       <c r="D22" t="n">
-        <v>28.28192550744692</v>
+        <v>28.28192550744693</v>
       </c>
       <c r="E22" t="n">
-        <v>28.28192550744692</v>
+        <v>28.28192550744693</v>
       </c>
       <c r="F22" t="n">
-        <v>28.28192550744692</v>
+        <v>28.28192550744693</v>
       </c>
       <c r="G22" t="n">
-        <v>28.28192550744692</v>
+        <v>28.28192550744693</v>
       </c>
       <c r="H22" t="n">
-        <v>28.28192550744692</v>
+        <v>28.28192550744693</v>
       </c>
       <c r="I22" t="n">
-        <v>28.28192550744692</v>
+        <v>28.28192550744693</v>
       </c>
       <c r="J22" t="n">
-        <v>52.18246991706596</v>
+        <v>52.18246991706599</v>
       </c>
       <c r="K22" t="n">
-        <v>104.2768025790822</v>
+        <v>104.2768025790823</v>
       </c>
       <c r="L22" t="n">
-        <v>175.7993050620775</v>
+        <v>175.7993050620776</v>
       </c>
       <c r="M22" t="n">
-        <v>251.7392267253734</v>
+        <v>251.7392267253735</v>
       </c>
       <c r="N22" t="n">
-        <v>327.1503147453035</v>
+        <v>327.1503147453036</v>
       </c>
       <c r="O22" t="n">
-        <v>393.5037832208843</v>
+        <v>393.5037832208844</v>
       </c>
       <c r="P22" t="n">
-        <v>447.1830681082849</v>
+        <v>447.1830681082851</v>
       </c>
       <c r="Q22" t="n">
-        <v>475.3148086387631</v>
+        <v>475.3148086387632</v>
       </c>
       <c r="R22" t="n">
-        <v>475.3148086387631</v>
+        <v>475.3148086387632</v>
       </c>
       <c r="S22" t="n">
-        <v>475.3148086387631</v>
+        <v>475.3148086387632</v>
       </c>
       <c r="T22" t="n">
-        <v>475.3148086387631</v>
+        <v>475.3148086387632</v>
       </c>
       <c r="U22" t="n">
-        <v>309.993392899418</v>
+        <v>195.1652561377848</v>
       </c>
       <c r="V22" t="n">
-        <v>28.28192550744692</v>
+        <v>195.1652561377848</v>
       </c>
       <c r="W22" t="n">
-        <v>28.28192550744692</v>
+        <v>28.28192550744693</v>
       </c>
       <c r="X22" t="n">
-        <v>28.28192550744692</v>
+        <v>28.28192550744693</v>
       </c>
       <c r="Y22" t="n">
-        <v>28.28192550744692</v>
+        <v>28.28192550744693</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1478.418239990032</v>
+        <v>1172.872103645551</v>
       </c>
       <c r="C23" t="n">
-        <v>1051.517510003332</v>
+        <v>1172.872103645551</v>
       </c>
       <c r="D23" t="n">
-        <v>1051.517510003332</v>
+        <v>749.5794828305513</v>
       </c>
       <c r="E23" t="n">
-        <v>1051.517510003332</v>
+        <v>749.5794828305513</v>
       </c>
       <c r="F23" t="n">
-        <v>726.4881487176426</v>
+        <v>324.4553010199516</v>
       </c>
       <c r="G23" t="n">
-        <v>324.4553010199517</v>
+        <v>324.4553010199516</v>
       </c>
       <c r="H23" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="I23" t="n">
         <v>103.1440473010161</v>
       </c>
       <c r="J23" t="n">
-        <v>265.8602102853083</v>
+        <v>265.8602102853079</v>
       </c>
       <c r="K23" t="n">
-        <v>517.974567999823</v>
+        <v>517.9745679998223</v>
       </c>
       <c r="L23" t="n">
-        <v>836.7412585230817</v>
+        <v>836.741258523081</v>
       </c>
       <c r="M23" t="n">
-        <v>1196.576905080624</v>
+        <v>1196.576905080623</v>
       </c>
       <c r="N23" t="n">
-        <v>1562.984812457614</v>
+        <v>1562.984812457613</v>
       </c>
       <c r="O23" t="n">
-        <v>1906.806429336002</v>
+        <v>1906.806429336001</v>
       </c>
       <c r="P23" t="n">
-        <v>2194.643812107885</v>
+        <v>2194.643812107884</v>
       </c>
       <c r="Q23" t="n">
-        <v>2402.969627965677</v>
+        <v>2402.969627965676</v>
       </c>
       <c r="R23" t="n">
-        <v>2510.272196103408</v>
+        <v>2510.272196103407</v>
       </c>
       <c r="S23" t="n">
-        <v>2458.457769745855</v>
+        <v>2510.272196103407</v>
       </c>
       <c r="T23" t="n">
-        <v>2247.627653696035</v>
+        <v>2510.272196103407</v>
       </c>
       <c r="U23" t="n">
-        <v>2247.627653696035</v>
+        <v>2386.320722222566</v>
       </c>
       <c r="V23" t="n">
-        <v>1890.138238822284</v>
+        <v>2386.320722222566</v>
       </c>
       <c r="W23" t="n">
-        <v>1890.138238822284</v>
+        <v>1989.929372522914</v>
       </c>
       <c r="X23" t="n">
-        <v>1478.418239990032</v>
+        <v>1578.209373690661</v>
       </c>
       <c r="Y23" t="n">
-        <v>1478.418239990032</v>
+        <v>1172.872103645551</v>
       </c>
     </row>
     <row r="24">
@@ -6044,40 +6044,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>604.1777999452937</v>
+        <v>604.1777999452933</v>
       </c>
       <c r="C24" t="n">
-        <v>486.6718964627985</v>
+        <v>486.671896462798</v>
       </c>
       <c r="D24" t="n">
-        <v>382.8319379780834</v>
+        <v>382.8319379780831</v>
       </c>
       <c r="E24" t="n">
-        <v>278.1300042510206</v>
+        <v>278.1300042510203</v>
       </c>
       <c r="F24" t="n">
-        <v>184.4841739339248</v>
+        <v>184.4841739339245</v>
       </c>
       <c r="G24" t="n">
-        <v>91.66433580662169</v>
+        <v>91.66433580662166</v>
       </c>
       <c r="H24" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="I24" t="n">
-        <v>75.83346633145936</v>
+        <v>75.83346633145926</v>
       </c>
       <c r="J24" t="n">
-        <v>169.6881981570806</v>
+        <v>169.6881981570805</v>
       </c>
       <c r="K24" t="n">
-        <v>342.80104282661</v>
+        <v>342.8010428266099</v>
       </c>
       <c r="L24" t="n">
-        <v>583.1000388744362</v>
+        <v>583.100038874436</v>
       </c>
       <c r="M24" t="n">
-        <v>866.6631241688301</v>
+        <v>866.66312416883</v>
       </c>
       <c r="N24" t="n">
         <v>1160.072685361481</v>
@@ -6089,10 +6089,10 @@
         <v>1634.259488911545</v>
       </c>
       <c r="Q24" t="n">
-        <v>1766.116009761533</v>
+        <v>1766.116009761532</v>
       </c>
       <c r="R24" t="n">
-        <v>1817.767364655854</v>
+        <v>1817.767364655853</v>
       </c>
       <c r="S24" t="n">
         <v>1759.362893661493</v>
@@ -6101,19 +6101,19 @@
         <v>1622.456576507551</v>
       </c>
       <c r="U24" t="n">
-        <v>1437.769560272918</v>
+        <v>1437.769560272917</v>
       </c>
       <c r="V24" t="n">
-        <v>1232.796421412184</v>
+        <v>1232.796421412183</v>
       </c>
       <c r="W24" t="n">
         <v>1036.275044245401</v>
       </c>
       <c r="X24" t="n">
-        <v>872.7976980120641</v>
+        <v>872.7976980120636</v>
       </c>
       <c r="Y24" t="n">
-        <v>733.1048093653565</v>
+        <v>733.104809365356</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>551.5921968678834</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="C25" t="n">
-        <v>551.5921968678834</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="D25" t="n">
-        <v>388.2754239946541</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="E25" t="n">
-        <v>222.0672181475077</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="F25" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="G25" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="H25" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="I25" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="J25" t="n">
         <v>101.4579413382349</v>
       </c>
       <c r="K25" t="n">
-        <v>198.499934977965</v>
+        <v>198.4999349779649</v>
       </c>
       <c r="L25" t="n">
-        <v>327.5399685743821</v>
+        <v>327.539968574382</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1240622438376</v>
+        <v>464.1240622438374</v>
       </c>
       <c r="N25" t="n">
-        <v>598.7373394060099</v>
+        <v>598.7373394060097</v>
       </c>
       <c r="O25" t="n">
-        <v>719.7736117064337</v>
+        <v>719.7736117064335</v>
       </c>
       <c r="P25" t="n">
-        <v>820.2434820122618</v>
+        <v>820.2434820122616</v>
       </c>
       <c r="Q25" t="n">
-        <v>880.7705985416227</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="R25" t="n">
-        <v>880.7705985416227</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="S25" t="n">
-        <v>880.7705985416227</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="T25" t="n">
-        <v>880.7705985416227</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="U25" t="n">
-        <v>880.7705985416227</v>
+        <v>600.6425766887946</v>
       </c>
       <c r="V25" t="n">
-        <v>880.7705985416227</v>
+        <v>318.9311092968235</v>
       </c>
       <c r="W25" t="n">
-        <v>880.7705985416227</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="X25" t="n">
-        <v>638.2067019874278</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="Y25" t="n">
-        <v>551.5921968678834</v>
+        <v>50.20544392206813</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1474.764004711568</v>
+        <v>1730.240143269201</v>
       </c>
       <c r="C26" t="n">
-        <v>1047.863274724868</v>
+        <v>1303.339413282501</v>
       </c>
       <c r="D26" t="n">
-        <v>624.5706539098687</v>
+        <v>1303.339413282501</v>
       </c>
       <c r="E26" t="n">
-        <v>198.5937140577263</v>
+        <v>877.3624734303589</v>
       </c>
       <c r="F26" t="n">
-        <v>198.5937140577263</v>
+        <v>452.2382916197591</v>
       </c>
       <c r="G26" t="n">
-        <v>198.5937140577263</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="H26" t="n">
         <v>50.20544392206816</v>
       </c>
       <c r="I26" t="n">
-        <v>103.1440473010161</v>
+        <v>103.1440473010166</v>
       </c>
       <c r="J26" t="n">
-        <v>265.8602102853079</v>
+        <v>265.8602102853083</v>
       </c>
       <c r="K26" t="n">
-        <v>517.9745679998225</v>
+        <v>517.9745679998227</v>
       </c>
       <c r="L26" t="n">
-        <v>836.7412585230812</v>
+        <v>836.7412585230815</v>
       </c>
       <c r="M26" t="n">
         <v>1196.576905080624</v>
@@ -6253,25 +6253,25 @@
         <v>2510.272196103408</v>
       </c>
       <c r="S26" t="n">
-        <v>2510.272196103408</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="T26" t="n">
-        <v>2510.272196103408</v>
+        <v>2345.89997036951</v>
       </c>
       <c r="U26" t="n">
-        <v>2252.101783876849</v>
+        <v>2087.729558142952</v>
       </c>
       <c r="V26" t="n">
-        <v>1894.612369003098</v>
+        <v>1730.240143269201</v>
       </c>
       <c r="W26" t="n">
-        <v>1894.612369003098</v>
+        <v>1730.240143269201</v>
       </c>
       <c r="X26" t="n">
-        <v>1894.612369003098</v>
+        <v>1730.240143269201</v>
       </c>
       <c r="Y26" t="n">
-        <v>1894.612369003098</v>
+        <v>1730.240143269201</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>604.1777999452937</v>
+        <v>604.1777999452933</v>
       </c>
       <c r="C27" t="n">
-        <v>486.6718964627985</v>
+        <v>486.671896462798</v>
       </c>
       <c r="D27" t="n">
-        <v>382.8319379780834</v>
+        <v>382.8319379780831</v>
       </c>
       <c r="E27" t="n">
-        <v>278.1300042510206</v>
+        <v>278.1300042510203</v>
       </c>
       <c r="F27" t="n">
-        <v>184.4841739339248</v>
+        <v>184.4841739339245</v>
       </c>
       <c r="G27" t="n">
-        <v>91.66433580662158</v>
+        <v>91.66433580662168</v>
       </c>
       <c r="H27" t="n">
         <v>50.20544392206816</v>
@@ -6308,16 +6308,16 @@
         <v>169.6881981570805</v>
       </c>
       <c r="K27" t="n">
-        <v>342.8010428266101</v>
+        <v>342.8010428266099</v>
       </c>
       <c r="L27" t="n">
-        <v>583.1000388744363</v>
+        <v>583.100038874436</v>
       </c>
       <c r="M27" t="n">
-        <v>866.6631241688304</v>
+        <v>866.66312416883</v>
       </c>
       <c r="N27" t="n">
-        <v>1160.072685361482</v>
+        <v>1160.072685361481</v>
       </c>
       <c r="O27" t="n">
         <v>1424.874394922369</v>
@@ -6326,10 +6326,10 @@
         <v>1634.259488911545</v>
       </c>
       <c r="Q27" t="n">
-        <v>1766.116009761533</v>
+        <v>1766.116009761532</v>
       </c>
       <c r="R27" t="n">
-        <v>1817.767364655854</v>
+        <v>1817.767364655853</v>
       </c>
       <c r="S27" t="n">
         <v>1759.362893661493</v>
@@ -6338,19 +6338,19 @@
         <v>1622.456576507551</v>
       </c>
       <c r="U27" t="n">
-        <v>1437.769560272918</v>
+        <v>1437.769560272917</v>
       </c>
       <c r="V27" t="n">
-        <v>1232.796421412184</v>
+        <v>1232.796421412183</v>
       </c>
       <c r="W27" t="n">
         <v>1036.275044245401</v>
       </c>
       <c r="X27" t="n">
-        <v>872.7976980120641</v>
+        <v>872.7976980120636</v>
       </c>
       <c r="Y27" t="n">
-        <v>733.1048093653565</v>
+        <v>733.104809365356</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>50.20544392206816</v>
+        <v>318.9311092968235</v>
       </c>
       <c r="C28" t="n">
-        <v>50.20544392206816</v>
+        <v>318.9311092968235</v>
       </c>
       <c r="D28" t="n">
-        <v>50.20544392206816</v>
+        <v>318.9311092968235</v>
       </c>
       <c r="E28" t="n">
-        <v>50.20544392206816</v>
+        <v>184.80416897444</v>
       </c>
       <c r="F28" t="n">
-        <v>50.20544392206816</v>
+        <v>184.80416897444</v>
       </c>
       <c r="G28" t="n">
-        <v>50.20544392206816</v>
+        <v>184.80416897444</v>
       </c>
       <c r="H28" t="n">
         <v>50.20544392206816</v>
@@ -6417,19 +6417,19 @@
         <v>880.7705985416225</v>
       </c>
       <c r="U28" t="n">
-        <v>880.7705985416225</v>
+        <v>600.6425766887946</v>
       </c>
       <c r="V28" t="n">
-        <v>599.0591311496514</v>
+        <v>318.9311092968235</v>
       </c>
       <c r="W28" t="n">
-        <v>324.2067273221645</v>
+        <v>318.9311092968235</v>
       </c>
       <c r="X28" t="n">
-        <v>324.2067273221645</v>
+        <v>318.9311092968235</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.86395901190647</v>
+        <v>318.9311092968235</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>726.4881487176426</v>
+        <v>1153.388878704342</v>
       </c>
       <c r="C29" t="n">
         <v>726.4881487176426</v>
@@ -6496,19 +6496,19 @@
         <v>2247.627653696034</v>
       </c>
       <c r="U29" t="n">
-        <v>2247.627653696034</v>
+        <v>1989.457241469476</v>
       </c>
       <c r="V29" t="n">
-        <v>1890.138238822284</v>
+        <v>1631.967826595725</v>
       </c>
       <c r="W29" t="n">
-        <v>1493.746889122631</v>
+        <v>1235.576476896072</v>
       </c>
       <c r="X29" t="n">
-        <v>1131.825418762752</v>
+        <v>1153.388878704342</v>
       </c>
       <c r="Y29" t="n">
-        <v>726.4881487176426</v>
+        <v>1153.388878704342</v>
       </c>
     </row>
     <row r="30">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1679.707041483854</v>
+        <v>184.80416897444</v>
       </c>
       <c r="C31" t="n">
-        <v>1679.707041483854</v>
+        <v>184.80416897444</v>
       </c>
       <c r="D31" t="n">
-        <v>1679.707041483854</v>
+        <v>184.80416897444</v>
       </c>
       <c r="E31" t="n">
-        <v>1679.707041483854</v>
+        <v>184.80416897444</v>
       </c>
       <c r="F31" t="n">
-        <v>1679.707041483854</v>
+        <v>184.80416897444</v>
       </c>
       <c r="G31" t="n">
-        <v>1679.707041483854</v>
+        <v>184.80416897444</v>
       </c>
       <c r="H31" t="n">
-        <v>1679.707041483854</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I31" t="n">
-        <v>1679.707041483854</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="J31" t="n">
-        <v>1730.959538900021</v>
+        <v>101.4579413382349</v>
       </c>
       <c r="K31" t="n">
-        <v>1828.001532539751</v>
+        <v>198.4999349779649</v>
       </c>
       <c r="L31" t="n">
-        <v>1957.041566136168</v>
+        <v>327.539968574382</v>
       </c>
       <c r="M31" t="n">
-        <v>2093.625659805623</v>
+        <v>464.1240622438374</v>
       </c>
       <c r="N31" t="n">
-        <v>2228.238936967795</v>
+        <v>598.7373394060097</v>
       </c>
       <c r="O31" t="n">
-        <v>2349.275209268219</v>
+        <v>719.7736117064335</v>
       </c>
       <c r="P31" t="n">
-        <v>2449.745079574047</v>
+        <v>820.2434820122616</v>
       </c>
       <c r="Q31" t="n">
-        <v>2510.272196103408</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="R31" t="n">
-        <v>2510.272196103408</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="S31" t="n">
-        <v>2510.272196103408</v>
+        <v>746.6436582192389</v>
       </c>
       <c r="T31" t="n">
-        <v>2510.272196103408</v>
+        <v>746.6436582192389</v>
       </c>
       <c r="U31" t="n">
-        <v>2510.272196103408</v>
+        <v>466.5156363664111</v>
       </c>
       <c r="V31" t="n">
-        <v>2510.272196103408</v>
+        <v>184.80416897444</v>
       </c>
       <c r="W31" t="n">
-        <v>2235.419792275921</v>
+        <v>184.80416897444</v>
       </c>
       <c r="X31" t="n">
-        <v>1992.855895721726</v>
+        <v>184.80416897444</v>
       </c>
       <c r="Y31" t="n">
-        <v>1766.513127411468</v>
+        <v>184.80416897444</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2090.423831811878</v>
+        <v>1633.272135409215</v>
       </c>
       <c r="C32" t="n">
-        <v>1663.523101825178</v>
+        <v>1633.272135409215</v>
       </c>
       <c r="D32" t="n">
-        <v>1240.230481010178</v>
+        <v>1209.979514594216</v>
       </c>
       <c r="E32" t="n">
-        <v>814.2535411580358</v>
+        <v>784.0025747420731</v>
       </c>
       <c r="F32" t="n">
-        <v>389.129359347436</v>
+        <v>358.8783929314733</v>
       </c>
       <c r="G32" t="n">
         <v>50.20544392206816</v>
@@ -6697,16 +6697,16 @@
         <v>50.20544392206816</v>
       </c>
       <c r="I32" t="n">
-        <v>103.1440473010166</v>
+        <v>103.1440473010161</v>
       </c>
       <c r="J32" t="n">
-        <v>265.8602102853083</v>
+        <v>265.8602102853081</v>
       </c>
       <c r="K32" t="n">
-        <v>517.9745679998227</v>
+        <v>517.9745679998226</v>
       </c>
       <c r="L32" t="n">
-        <v>836.7412585230815</v>
+        <v>836.7412585230813</v>
       </c>
       <c r="M32" t="n">
         <v>1196.576905080624</v>
@@ -6727,25 +6727,25 @@
         <v>2510.272196103408</v>
       </c>
       <c r="S32" t="n">
-        <v>2510.272196103408</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="T32" t="n">
-        <v>2510.272196103408</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="U32" t="n">
-        <v>2510.272196103408</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="V32" t="n">
-        <v>2510.272196103408</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="W32" t="n">
-        <v>2510.272196103408</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="X32" t="n">
-        <v>2510.272196103408</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="Y32" t="n">
-        <v>2510.272196103408</v>
+        <v>2053.120499700745</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1296.682631392847</v>
+        <v>604.1777999452933</v>
       </c>
       <c r="C33" t="n">
-        <v>1179.176727910352</v>
+        <v>486.671896462798</v>
       </c>
       <c r="D33" t="n">
-        <v>1075.336769425637</v>
+        <v>382.831937978083</v>
       </c>
       <c r="E33" t="n">
-        <v>970.6348356985745</v>
+        <v>278.1300042510202</v>
       </c>
       <c r="F33" t="n">
-        <v>876.9890053814787</v>
+        <v>184.4841739339244</v>
       </c>
       <c r="G33" t="n">
-        <v>784.1691672541759</v>
+        <v>91.66433580662161</v>
       </c>
       <c r="H33" t="n">
-        <v>742.7102753696224</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I33" t="n">
-        <v>768.3382977790136</v>
+        <v>75.83346633145928</v>
       </c>
       <c r="J33" t="n">
-        <v>862.1930296046348</v>
+        <v>169.6881981570805</v>
       </c>
       <c r="K33" t="n">
-        <v>1035.305874274164</v>
+        <v>342.8010428266099</v>
       </c>
       <c r="L33" t="n">
-        <v>1275.60487032199</v>
+        <v>583.100038874436</v>
       </c>
       <c r="M33" t="n">
-        <v>1559.167955616384</v>
+        <v>866.66312416883</v>
       </c>
       <c r="N33" t="n">
-        <v>1852.577516809036</v>
+        <v>1160.072685361481</v>
       </c>
       <c r="O33" t="n">
-        <v>2117.379226369923</v>
+        <v>1424.874394922369</v>
       </c>
       <c r="P33" t="n">
-        <v>2326.764320359099</v>
+        <v>1634.259488911545</v>
       </c>
       <c r="Q33" t="n">
-        <v>2458.620841209087</v>
+        <v>1766.116009761532</v>
       </c>
       <c r="R33" t="n">
-        <v>2510.272196103408</v>
+        <v>1817.767364655853</v>
       </c>
       <c r="S33" t="n">
-        <v>2451.867725109047</v>
+        <v>1759.362893661493</v>
       </c>
       <c r="T33" t="n">
-        <v>2314.961407955105</v>
+        <v>1622.456576507551</v>
       </c>
       <c r="U33" t="n">
-        <v>2130.274391720471</v>
+        <v>1437.769560272917</v>
       </c>
       <c r="V33" t="n">
-        <v>1925.301252859738</v>
+        <v>1232.796421412183</v>
       </c>
       <c r="W33" t="n">
-        <v>1728.779875692955</v>
+        <v>1036.275044245401</v>
       </c>
       <c r="X33" t="n">
-        <v>1565.302529459618</v>
+        <v>872.7976980120636</v>
       </c>
       <c r="Y33" t="n">
-        <v>1425.60964081291</v>
+        <v>733.104809365356</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2323.362585062605</v>
+        <v>638.2067019874276</v>
       </c>
       <c r="C34" t="n">
-        <v>2151.390021941521</v>
+        <v>466.2341388663435</v>
       </c>
       <c r="D34" t="n">
-        <v>2151.390021941521</v>
+        <v>466.2341388663435</v>
       </c>
       <c r="E34" t="n">
-        <v>2151.390021941521</v>
+        <v>300.0259330191971</v>
       </c>
       <c r="F34" t="n">
-        <v>1979.528247716082</v>
+        <v>128.1641587937575</v>
       </c>
       <c r="G34" t="n">
-        <v>1814.305766536226</v>
+        <v>128.1641587937575</v>
       </c>
       <c r="H34" t="n">
-        <v>1679.707041483854</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I34" t="n">
-        <v>1679.707041483854</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="J34" t="n">
-        <v>1730.959538900021</v>
+        <v>101.4579413382349</v>
       </c>
       <c r="K34" t="n">
-        <v>1828.001532539751</v>
+        <v>198.4999349779649</v>
       </c>
       <c r="L34" t="n">
-        <v>1957.041566136168</v>
+        <v>327.539968574382</v>
       </c>
       <c r="M34" t="n">
-        <v>2093.625659805623</v>
+        <v>464.1240622438374</v>
       </c>
       <c r="N34" t="n">
-        <v>2228.238936967795</v>
+        <v>598.7373394060097</v>
       </c>
       <c r="O34" t="n">
-        <v>2349.275209268219</v>
+        <v>719.7736117064335</v>
       </c>
       <c r="P34" t="n">
-        <v>2449.745079574047</v>
+        <v>820.2434820122616</v>
       </c>
       <c r="Q34" t="n">
-        <v>2510.272196103408</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="R34" t="n">
-        <v>2510.272196103408</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="S34" t="n">
-        <v>2510.272196103408</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="T34" t="n">
-        <v>2323.362585062605</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="U34" t="n">
-        <v>2323.362585062605</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="V34" t="n">
-        <v>2323.362585062605</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="W34" t="n">
-        <v>2323.362585062605</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="X34" t="n">
-        <v>2323.362585062605</v>
+        <v>638.2067019874276</v>
       </c>
       <c r="Y34" t="n">
-        <v>2323.362585062605</v>
+        <v>638.2067019874276</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1273.366562934515</v>
+        <v>566.9903746507506</v>
       </c>
       <c r="C35" t="n">
-        <v>1273.366562934515</v>
+        <v>452.2382916197591</v>
       </c>
       <c r="D35" t="n">
-        <v>1273.366562934515</v>
+        <v>452.2382916197591</v>
       </c>
       <c r="E35" t="n">
-        <v>847.3896230823729</v>
+        <v>452.2382916197591</v>
       </c>
       <c r="F35" t="n">
-        <v>422.2654412717731</v>
+        <v>452.2382916197591</v>
       </c>
       <c r="G35" t="n">
         <v>50.20544392206816</v>
@@ -6934,16 +6934,16 @@
         <v>50.20544392206816</v>
       </c>
       <c r="I35" t="n">
-        <v>103.1440473010161</v>
+        <v>103.1440473010166</v>
       </c>
       <c r="J35" t="n">
-        <v>265.8602102853081</v>
+        <v>265.8602102853083</v>
       </c>
       <c r="K35" t="n">
-        <v>517.9745679998226</v>
+        <v>517.9745679998227</v>
       </c>
       <c r="L35" t="n">
-        <v>836.7412585230813</v>
+        <v>836.7412585230816</v>
       </c>
       <c r="M35" t="n">
         <v>1196.576905080624</v>
@@ -6964,25 +6964,25 @@
         <v>2510.272196103408</v>
       </c>
       <c r="S35" t="n">
-        <v>2510.272196103408</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="T35" t="n">
-        <v>2510.272196103408</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="U35" t="n">
-        <v>2510.272196103408</v>
+        <v>2200.287357519296</v>
       </c>
       <c r="V35" t="n">
-        <v>2510.272196103408</v>
+        <v>2200.287357519296</v>
       </c>
       <c r="W35" t="n">
-        <v>2510.272196103408</v>
+        <v>1803.896007819643</v>
       </c>
       <c r="X35" t="n">
-        <v>2098.552197271155</v>
+        <v>1392.17600898739</v>
       </c>
       <c r="Y35" t="n">
-        <v>1693.214927226045</v>
+        <v>986.8387389422807</v>
       </c>
     </row>
     <row r="36">
@@ -6998,16 +6998,16 @@
         <v>486.671896462798</v>
       </c>
       <c r="D36" t="n">
-        <v>382.831937978083</v>
+        <v>382.8319379780831</v>
       </c>
       <c r="E36" t="n">
-        <v>278.1300042510202</v>
+        <v>278.1300042510203</v>
       </c>
       <c r="F36" t="n">
-        <v>184.4841739339244</v>
+        <v>184.4841739339245</v>
       </c>
       <c r="G36" t="n">
-        <v>91.66433580662161</v>
+        <v>91.66433580662168</v>
       </c>
       <c r="H36" t="n">
         <v>50.20544392206816</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>551.5921968678834</v>
+        <v>225.3426010831873</v>
       </c>
       <c r="C37" t="n">
-        <v>551.5921968678834</v>
+        <v>225.3426010831873</v>
       </c>
       <c r="D37" t="n">
-        <v>388.2754239946541</v>
+        <v>225.3426010831873</v>
       </c>
       <c r="E37" t="n">
-        <v>222.0672181475077</v>
+        <v>225.3426010831873</v>
       </c>
       <c r="F37" t="n">
-        <v>50.20544392206816</v>
+        <v>53.4808268577477</v>
       </c>
       <c r="G37" t="n">
-        <v>50.20544392206816</v>
+        <v>53.4808268577477</v>
       </c>
       <c r="H37" t="n">
         <v>50.20544392206816</v>
@@ -7125,22 +7125,22 @@
         <v>880.7705985416225</v>
       </c>
       <c r="T37" t="n">
-        <v>880.7705985416225</v>
+        <v>641.8513381055109</v>
       </c>
       <c r="U37" t="n">
-        <v>880.7705985416225</v>
+        <v>641.8513381055109</v>
       </c>
       <c r="V37" t="n">
-        <v>599.0591311496514</v>
+        <v>641.8513381055109</v>
       </c>
       <c r="W37" t="n">
-        <v>599.0591311496514</v>
+        <v>641.8513381055109</v>
       </c>
       <c r="X37" t="n">
-        <v>599.0591311496514</v>
+        <v>641.8513381055109</v>
       </c>
       <c r="Y37" t="n">
-        <v>599.0591311496514</v>
+        <v>415.5085697952529</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>666.6526561796625</v>
+        <v>825.1607868773083</v>
       </c>
       <c r="C38" t="n">
-        <v>666.6526561796625</v>
+        <v>825.1607868773083</v>
       </c>
       <c r="D38" t="n">
-        <v>243.3600353646627</v>
+        <v>825.1607868773083</v>
       </c>
       <c r="E38" t="n">
-        <v>243.3600353646627</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="F38" t="n">
-        <v>243.3600353646627</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="G38" t="n">
-        <v>50.20544392206816</v>
+        <v>324.4553010199516</v>
       </c>
       <c r="H38" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="I38" t="n">
         <v>103.1440473010161</v>
@@ -7189,37 +7189,37 @@
         <v>1562.984812457614</v>
       </c>
       <c r="O38" t="n">
-        <v>1906.806429336002</v>
+        <v>1906.806429336001</v>
       </c>
       <c r="P38" t="n">
-        <v>2194.643812107885</v>
+        <v>2194.643812107884</v>
       </c>
       <c r="Q38" t="n">
-        <v>2402.969627965677</v>
+        <v>2402.969627965676</v>
       </c>
       <c r="R38" t="n">
-        <v>2510.272196103408</v>
+        <v>2510.272196103407</v>
       </c>
       <c r="S38" t="n">
-        <v>2510.272196103408</v>
+        <v>2458.457769745854</v>
       </c>
       <c r="T38" t="n">
-        <v>2510.272196103408</v>
+        <v>2458.457769745854</v>
       </c>
       <c r="U38" t="n">
-        <v>2252.101783876849</v>
+        <v>2458.457769745854</v>
       </c>
       <c r="V38" t="n">
-        <v>1894.612369003098</v>
+        <v>2458.457769745854</v>
       </c>
       <c r="W38" t="n">
-        <v>1498.221019303445</v>
+        <v>2062.066420046201</v>
       </c>
       <c r="X38" t="n">
-        <v>1086.501020471193</v>
+        <v>1650.346421213948</v>
       </c>
       <c r="Y38" t="n">
-        <v>1086.501020471193</v>
+        <v>1245.009151168838</v>
       </c>
     </row>
     <row r="39">
@@ -7229,43 +7229,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>604.1777999452933</v>
+        <v>604.1777999452937</v>
       </c>
       <c r="C39" t="n">
-        <v>486.671896462798</v>
+        <v>486.6718964627985</v>
       </c>
       <c r="D39" t="n">
-        <v>382.8319379780831</v>
+        <v>382.8319379780834</v>
       </c>
       <c r="E39" t="n">
-        <v>278.1300042510203</v>
+        <v>278.1300042510206</v>
       </c>
       <c r="F39" t="n">
-        <v>184.4841739339245</v>
+        <v>184.4841739339248</v>
       </c>
       <c r="G39" t="n">
-        <v>91.66433580662168</v>
+        <v>91.66433580662169</v>
       </c>
       <c r="H39" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="I39" t="n">
-        <v>75.83346633145928</v>
+        <v>75.83346633145931</v>
       </c>
       <c r="J39" t="n">
         <v>169.6881981570805</v>
       </c>
       <c r="K39" t="n">
-        <v>342.8010428266099</v>
+        <v>342.8010428266101</v>
       </c>
       <c r="L39" t="n">
-        <v>583.100038874436</v>
+        <v>583.1000388744363</v>
       </c>
       <c r="M39" t="n">
-        <v>866.66312416883</v>
+        <v>866.6631241688303</v>
       </c>
       <c r="N39" t="n">
-        <v>1160.072685361481</v>
+        <v>1160.072685361482</v>
       </c>
       <c r="O39" t="n">
         <v>1424.874394922369</v>
@@ -7274,10 +7274,10 @@
         <v>1634.259488911545</v>
       </c>
       <c r="Q39" t="n">
-        <v>1766.116009761532</v>
+        <v>1766.116009761533</v>
       </c>
       <c r="R39" t="n">
-        <v>1817.767364655853</v>
+        <v>1817.767364655854</v>
       </c>
       <c r="S39" t="n">
         <v>1759.362893661493</v>
@@ -7286,19 +7286,19 @@
         <v>1622.456576507551</v>
       </c>
       <c r="U39" t="n">
-        <v>1437.769560272917</v>
+        <v>1437.769560272918</v>
       </c>
       <c r="V39" t="n">
-        <v>1232.796421412183</v>
+        <v>1232.796421412184</v>
       </c>
       <c r="W39" t="n">
         <v>1036.275044245401</v>
       </c>
       <c r="X39" t="n">
-        <v>872.7976980120636</v>
+        <v>872.7976980120641</v>
       </c>
       <c r="Y39" t="n">
-        <v>733.104809365356</v>
+        <v>733.1048093653565</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>551.5921968678834</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="C40" t="n">
-        <v>551.5921968678834</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="D40" t="n">
-        <v>388.2754239946541</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="E40" t="n">
-        <v>222.0672181475077</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="F40" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="G40" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="H40" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="I40" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="J40" t="n">
         <v>101.4579413382349</v>
@@ -7359,25 +7359,25 @@
         <v>880.7705985416225</v>
       </c>
       <c r="S40" t="n">
-        <v>728.6638647350633</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="T40" t="n">
-        <v>728.6638647350633</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="U40" t="n">
-        <v>551.5921968678834</v>
+        <v>606.7693151415262</v>
       </c>
       <c r="V40" t="n">
-        <v>551.5921968678834</v>
+        <v>325.0578477495551</v>
       </c>
       <c r="W40" t="n">
-        <v>551.5921968678834</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="X40" t="n">
-        <v>551.5921968678834</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="Y40" t="n">
-        <v>551.5921968678834</v>
+        <v>50.20544392206813</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2038.609405454325</v>
+        <v>1794.950087474187</v>
       </c>
       <c r="C41" t="n">
-        <v>2000.881891195384</v>
+        <v>1794.950087474187</v>
       </c>
       <c r="D41" t="n">
-        <v>1577.589270380385</v>
+        <v>1371.657466659187</v>
       </c>
       <c r="E41" t="n">
-        <v>1151.612330528242</v>
+        <v>945.6805268070444</v>
       </c>
       <c r="F41" t="n">
-        <v>726.4881487176426</v>
+        <v>520.5563449964446</v>
       </c>
       <c r="G41" t="n">
-        <v>324.4553010199517</v>
+        <v>118.5234972987537</v>
       </c>
       <c r="H41" t="n">
         <v>50.20544392206816</v>
@@ -7444,19 +7444,19 @@
         <v>2458.457769745855</v>
       </c>
       <c r="U41" t="n">
-        <v>2458.457769745855</v>
+        <v>2200.287357519296</v>
       </c>
       <c r="V41" t="n">
-        <v>2458.457769745855</v>
+        <v>2200.287357519296</v>
       </c>
       <c r="W41" t="n">
-        <v>2458.457769745855</v>
+        <v>2200.287357519296</v>
       </c>
       <c r="X41" t="n">
-        <v>2458.457769745855</v>
+        <v>2200.287357519296</v>
       </c>
       <c r="Y41" t="n">
-        <v>2458.457769745855</v>
+        <v>1794.950087474187</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1296.682631392848</v>
+        <v>604.1777999452933</v>
       </c>
       <c r="C42" t="n">
-        <v>1179.176727910353</v>
+        <v>486.671896462798</v>
       </c>
       <c r="D42" t="n">
-        <v>1075.336769425638</v>
+        <v>382.8319379780831</v>
       </c>
       <c r="E42" t="n">
-        <v>970.6348356985749</v>
+        <v>278.1300042510203</v>
       </c>
       <c r="F42" t="n">
-        <v>876.989005381479</v>
+        <v>184.4841739339245</v>
       </c>
       <c r="G42" t="n">
-        <v>784.1691672541763</v>
+        <v>91.66433580662168</v>
       </c>
       <c r="H42" t="n">
-        <v>742.7102753696224</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I42" t="n">
-        <v>768.3382977790136</v>
+        <v>75.83346633145928</v>
       </c>
       <c r="J42" t="n">
-        <v>862.1930296046348</v>
+        <v>169.6881981570805</v>
       </c>
       <c r="K42" t="n">
-        <v>1035.305874274164</v>
+        <v>342.8010428266099</v>
       </c>
       <c r="L42" t="n">
-        <v>1275.60487032199</v>
+        <v>583.100038874436</v>
       </c>
       <c r="M42" t="n">
-        <v>1559.167955616384</v>
+        <v>866.66312416883</v>
       </c>
       <c r="N42" t="n">
-        <v>1852.577516809036</v>
+        <v>1160.072685361481</v>
       </c>
       <c r="O42" t="n">
-        <v>2117.379226369923</v>
+        <v>1424.874394922369</v>
       </c>
       <c r="P42" t="n">
-        <v>2326.764320359099</v>
+        <v>1634.259488911545</v>
       </c>
       <c r="Q42" t="n">
-        <v>2458.620841209087</v>
+        <v>1766.116009761532</v>
       </c>
       <c r="R42" t="n">
-        <v>2510.272196103408</v>
+        <v>1817.767364655853</v>
       </c>
       <c r="S42" t="n">
-        <v>2451.867725109047</v>
+        <v>1759.362893661493</v>
       </c>
       <c r="T42" t="n">
-        <v>2314.961407955105</v>
+        <v>1622.456576507551</v>
       </c>
       <c r="U42" t="n">
-        <v>2130.274391720472</v>
+        <v>1437.769560272917</v>
       </c>
       <c r="V42" t="n">
-        <v>1925.301252859738</v>
+        <v>1232.796421412183</v>
       </c>
       <c r="W42" t="n">
-        <v>1728.779875692955</v>
+        <v>1036.275044245401</v>
       </c>
       <c r="X42" t="n">
-        <v>1565.302529459618</v>
+        <v>872.7976980120636</v>
       </c>
       <c r="Y42" t="n">
-        <v>1425.60964081291</v>
+        <v>733.104809365356</v>
       </c>
     </row>
     <row r="43">
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>222.0672181475077</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="C43" t="n">
-        <v>222.0672181475077</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="D43" t="n">
-        <v>222.0672181475077</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="E43" t="n">
-        <v>222.0672181475077</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="F43" t="n">
         <v>50.20544392206816</v>
@@ -7602,19 +7602,19 @@
         <v>880.7705985416225</v>
       </c>
       <c r="U43" t="n">
-        <v>880.7705985416225</v>
+        <v>600.6425766887946</v>
       </c>
       <c r="V43" t="n">
-        <v>880.7705985416225</v>
+        <v>318.9311092968235</v>
       </c>
       <c r="W43" t="n">
-        <v>880.7705985416225</v>
+        <v>240.3714126341338</v>
       </c>
       <c r="X43" t="n">
-        <v>638.5759551698313</v>
+        <v>240.3714126341338</v>
       </c>
       <c r="Y43" t="n">
-        <v>412.2331868595734</v>
+        <v>240.3714126341338</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1174.648651821651</v>
+        <v>1879.593715762057</v>
       </c>
       <c r="C44" t="n">
-        <v>747.7479218349514</v>
+        <v>1452.692985775357</v>
       </c>
       <c r="D44" t="n">
-        <v>324.4553010199517</v>
+        <v>1029.400364960358</v>
       </c>
       <c r="E44" t="n">
-        <v>324.4553010199517</v>
+        <v>603.4234251082152</v>
       </c>
       <c r="F44" t="n">
-        <v>324.4553010199517</v>
+        <v>178.2992432976154</v>
       </c>
       <c r="G44" t="n">
-        <v>324.4553010199517</v>
+        <v>178.2992432976154</v>
       </c>
       <c r="H44" t="n">
         <v>50.20544392206816</v>
       </c>
       <c r="I44" t="n">
-        <v>103.1440473010165</v>
+        <v>103.1440473010161</v>
       </c>
       <c r="J44" t="n">
-        <v>265.8602102853083</v>
+        <v>265.8602102853079</v>
       </c>
       <c r="K44" t="n">
-        <v>517.9745679998227</v>
+        <v>517.9745679998223</v>
       </c>
       <c r="L44" t="n">
-        <v>836.7412585230813</v>
+        <v>836.7412585230809</v>
       </c>
       <c r="M44" t="n">
-        <v>1196.576905080624</v>
+        <v>1196.576905080623</v>
       </c>
       <c r="N44" t="n">
         <v>1562.984812457614</v>
@@ -7675,25 +7675,25 @@
         <v>2510.272196103408</v>
       </c>
       <c r="S44" t="n">
-        <v>2458.457769745855</v>
+        <v>2510.272196103408</v>
       </c>
       <c r="T44" t="n">
-        <v>2247.627653696034</v>
+        <v>2299.442080053587</v>
       </c>
       <c r="U44" t="n">
-        <v>1989.457241469476</v>
+        <v>2299.442080053587</v>
       </c>
       <c r="V44" t="n">
-        <v>1631.967826595725</v>
+        <v>2299.442080053587</v>
       </c>
       <c r="W44" t="n">
-        <v>1631.967826595725</v>
+        <v>2299.442080053587</v>
       </c>
       <c r="X44" t="n">
-        <v>1631.967826595725</v>
+        <v>2299.442080053587</v>
       </c>
       <c r="Y44" t="n">
-        <v>1594.497016113181</v>
+        <v>2299.442080053587</v>
       </c>
     </row>
     <row r="45">
@@ -7709,16 +7709,16 @@
         <v>486.671896462798</v>
       </c>
       <c r="D45" t="n">
-        <v>382.8319379780831</v>
+        <v>382.831937978083</v>
       </c>
       <c r="E45" t="n">
-        <v>278.1300042510203</v>
+        <v>278.1300042510202</v>
       </c>
       <c r="F45" t="n">
-        <v>184.4841739339245</v>
+        <v>184.4841739339244</v>
       </c>
       <c r="G45" t="n">
-        <v>91.66433580662168</v>
+        <v>91.66433580662161</v>
       </c>
       <c r="H45" t="n">
         <v>50.20544392206816</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>388.2754239946541</v>
+        <v>216.4136497692146</v>
       </c>
       <c r="C46" t="n">
-        <v>388.2754239946541</v>
+        <v>216.4136497692146</v>
       </c>
       <c r="D46" t="n">
-        <v>388.2754239946541</v>
+        <v>216.4136497692146</v>
       </c>
       <c r="E46" t="n">
-        <v>222.0672181475077</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="F46" t="n">
         <v>50.20544392206816</v>
@@ -7833,25 +7833,25 @@
         <v>880.7705985416225</v>
       </c>
       <c r="S46" t="n">
-        <v>880.7705985416225</v>
+        <v>778.2531390140134</v>
       </c>
       <c r="T46" t="n">
-        <v>880.7705985416225</v>
+        <v>778.2531390140134</v>
       </c>
       <c r="U46" t="n">
-        <v>669.9868913866253</v>
+        <v>498.1251171611857</v>
       </c>
       <c r="V46" t="n">
-        <v>388.2754239946541</v>
+        <v>216.4136497692146</v>
       </c>
       <c r="W46" t="n">
-        <v>388.2754239946541</v>
+        <v>216.4136497692146</v>
       </c>
       <c r="X46" t="n">
-        <v>388.2754239946541</v>
+        <v>216.4136497692146</v>
       </c>
       <c r="Y46" t="n">
-        <v>388.2754239946541</v>
+        <v>216.4136497692146</v>
       </c>
     </row>
   </sheetData>
@@ -22546,25 +22546,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>399.6031956049344</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>404.4134154165328</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>400.8413873365496</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>403.4988631833209</v>
       </c>
       <c r="F2" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>381.7663341259155</v>
+        <v>399.9846413962156</v>
       </c>
       <c r="H2" t="n">
-        <v>273.4860474864606</v>
+        <v>291.7043547567607</v>
       </c>
       <c r="I2" t="n">
         <v>22.55690342461459</v>
@@ -22600,10 +22600,10 @@
         <v>96.23601616822083</v>
       </c>
       <c r="T2" t="n">
-        <v>199.1364724422805</v>
+        <v>217.3547797125806</v>
       </c>
       <c r="U2" t="n">
-        <v>239.6997928346531</v>
+        <v>255.7464778783334</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
@@ -22625,13 +22625,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>109.419432055562</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C3" t="n">
-        <v>98.11253717737017</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D3" t="n">
-        <v>93.14752307604344</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E3" t="n">
         <v>103.6549143897921</v>
@@ -22649,7 +22649,7 @@
         <v>10.44271547525859</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>4.888458418784966</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22676,13 +22676,13 @@
         <v>13.34053384443212</v>
       </c>
       <c r="S3" t="n">
-        <v>77.41990205371728</v>
+        <v>62.87740781110794</v>
       </c>
       <c r="T3" t="n">
         <v>121.5720560939172</v>
       </c>
       <c r="U3" t="n">
-        <v>182.9095657031111</v>
+        <v>164.691258432811</v>
       </c>
       <c r="V3" t="n">
         <v>202.9234074721264</v>
@@ -22691,7 +22691,7 @@
         <v>194.556163395115</v>
       </c>
       <c r="X3" t="n">
-        <v>161.8425727710037</v>
+        <v>143.6242655007036</v>
       </c>
       <c r="Y3" t="n">
         <v>138.2959597602405</v>
@@ -22746,7 +22746,7 @@
         <v>2.779019446119925</v>
       </c>
       <c r="P4" t="n">
-        <v>4.91766628300604</v>
+        <v>5.506790124936625</v>
       </c>
       <c r="Q4" t="n">
         <v>12.9368725197517</v>
@@ -22764,7 +22764,7 @@
         <v>277.3749939678559</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>278.3052288761208</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
@@ -22783,19 +22783,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>392.1401676895704</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
         <v>399.1220097277885</v>
       </c>
       <c r="D5" t="n">
-        <v>398.5109041461236</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>398.2074574945767</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>397.3632270334494</v>
       </c>
       <c r="G5" t="n">
         <v>399.9626175572692</v>
@@ -22828,7 +22828,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>0.1585647136001427</v>
       </c>
       <c r="R5" t="n">
         <v>14.11143217127993</v>
@@ -22840,7 +22840,7 @@
         <v>217.2583703575925</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7447159712177</v>
+        <v>235.0373607968914</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
@@ -22852,7 +22852,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>377.7741843856142</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -22871,22 +22871,22 @@
         <v>102.8015588998678</v>
       </c>
       <c r="E6" t="n">
-        <v>96.75970920096498</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F6" t="n">
-        <v>69.1996590548805</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G6" t="n">
         <v>69.425321382813</v>
       </c>
       <c r="H6" t="n">
-        <v>27.61158518215661</v>
+        <v>51.12129814120099</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.03700156004394</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>3.775148425455178</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22916,13 +22916,13 @@
         <v>77.20102327270656</v>
       </c>
       <c r="T6" t="n">
-        <v>139.7428664103214</v>
+        <v>119.0355112359951</v>
       </c>
       <c r="U6" t="n">
         <v>182.9087904535916</v>
       </c>
       <c r="V6" t="n">
-        <v>202.9234074721264</v>
+        <v>179.413694513082</v>
       </c>
       <c r="W6" t="n">
         <v>194.556163395115</v>
@@ -22931,7 +22931,7 @@
         <v>161.8425727710037</v>
       </c>
       <c r="Y6" t="n">
-        <v>138.2959597602405</v>
+        <v>114.7862468011961</v>
       </c>
     </row>
     <row r="7">
@@ -22986,7 +22986,7 @@
         <v>4.311953536506707</v>
       </c>
       <c r="Q7" t="n">
-        <v>8.925796570928297</v>
+        <v>12.10962959912422</v>
       </c>
       <c r="R7" t="n">
         <v>39.85081002223924</v>
@@ -23001,7 +23001,7 @@
         <v>277.3744551058947</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>275.7105196898555</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -23023,25 +23023,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>398.7692280099178</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>395.1971999299346</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>398.4878114781222</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>399.961149212524</v>
+        <v>392.9622601617783</v>
       </c>
       <c r="H8" t="n">
         <v>291.4637654305288</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>21.65122101284321</v>
       </c>
       <c r="J8" t="n">
         <v>1.027774177190942</v>
@@ -23068,22 +23068,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>14.01919626068105</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>95.70068803234793</v>
+        <v>71.83819335543279</v>
       </c>
       <c r="T8" t="n">
         <v>217.2519426784705</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7445985036381</v>
+        <v>231.882103826723</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>368.5649415257414</v>
       </c>
       <c r="X8" t="n">
         <v>407.6027988439302</v>
@@ -23102,19 +23102,19 @@
         <v>127.6377393258621</v>
       </c>
       <c r="C9" t="n">
-        <v>95.31275913624341</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D9" t="n">
-        <v>78.93906422295269</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E9" t="n">
-        <v>79.79241971287702</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F9" t="n">
-        <v>68.84687733700976</v>
+        <v>68.84687733700974</v>
       </c>
       <c r="G9" t="n">
-        <v>92.93424870815717</v>
+        <v>69.07175403124204</v>
       </c>
       <c r="H9" t="n">
         <v>51.11371057362263</v>
@@ -23153,7 +23153,7 @@
         <v>77.18643047130134</v>
       </c>
       <c r="T9" t="n">
-        <v>139.7396997551877</v>
+        <v>118.7216144437608</v>
       </c>
       <c r="U9" t="n">
         <v>182.908738767164</v>
@@ -23168,7 +23168,7 @@
         <v>161.8425727710037</v>
       </c>
       <c r="Y9" t="n">
-        <v>138.2959597602405</v>
+        <v>114.4334650833254</v>
       </c>
     </row>
     <row r="10">
@@ -23205,7 +23205,7 @@
         <v>10.02784554495553</v>
       </c>
       <c r="K10" t="n">
-        <v>0.05117107693680545</v>
+        <v>3.530955673011054</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23238,7 +23238,7 @@
         <v>277.3744191795909</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>275.4145681219771</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -23275,7 +23275,7 @@
         <v>398.8836990142266</v>
       </c>
       <c r="H11" t="n">
-        <v>280.4293285872151</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>71.14829163864472</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>212.5354044354234</v>
@@ -23317,16 +23317,16 @@
         <v>255.6584024877743</v>
       </c>
       <c r="V11" t="n">
-        <v>0.3904518819265377</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>38.9033673595701</v>
+        <v>38.90336735956998</v>
       </c>
       <c r="X11" t="n">
-        <v>54.07873000084373</v>
+        <v>54.07873000084362</v>
       </c>
       <c r="Y11" t="n">
-        <v>89.8998975076679</v>
+        <v>87.95344889044122</v>
       </c>
     </row>
     <row r="12">
@@ -23336,25 +23336,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>127.6377393258621</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>116.3308444476703</v>
+        <v>66.02852870423639</v>
       </c>
       <c r="D12" t="n">
-        <v>102.8015588998678</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>103.6549143897921</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>92.70937201392488</v>
       </c>
       <c r="G12" t="n">
-        <v>92.35776202894547</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>45.54606290860439</v>
+        <v>45.54606290860438</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23387,10 +23387,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>66.47844324997878</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>137.416053885909</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23399,13 +23399,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y12" t="n">
-        <v>83.53894291410522</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23421,22 +23421,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>107.992726866346</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>19.80922697040302</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>79.7239485572547</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>18.08995158650412</v>
+        <v>18.08995158650411</v>
       </c>
       <c r="S13" t="n">
         <v>157.3959181317836</v>
@@ -23497,16 +23497,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>69.10765384374639</v>
+        <v>69.10765384374628</v>
       </c>
       <c r="D14" t="n">
-        <v>65.53562576376322</v>
+        <v>107.6756947698591</v>
       </c>
       <c r="E14" t="n">
-        <v>110.3331706166304</v>
+        <v>68.19310161053443</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>67.34887114940716</v>
       </c>
       <c r="G14" t="n">
         <v>398.8836990142266</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>71.14829163864472</v>
+        <v>71.14829163864471</v>
       </c>
       <c r="T14" t="n">
         <v>212.5354044354234</v>
@@ -23560,7 +23560,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>54.07873000084373</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -23585,13 +23585,13 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>46.27953032605101</v>
       </c>
       <c r="G15" t="n">
-        <v>92.35776202894547</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>45.54606290860439</v>
+        <v>45.54606290860438</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23630,19 +23630,19 @@
         <v>137.416053885909</v>
       </c>
       <c r="U15" t="n">
-        <v>182.8708120119527</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>202.9234074721264</v>
       </c>
       <c r="W15" t="n">
-        <v>36.98465537125568</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="16">
@@ -23661,10 +23661,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>56.08776360384847</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>129.7414094110065</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>18.08995158650412</v>
+        <v>18.08995158650411</v>
       </c>
       <c r="S16" t="n">
         <v>157.3959181317836</v>
       </c>
       <c r="T16" t="n">
-        <v>238.199769595833</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>277.3480569759686</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>286.8295430435269</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
@@ -23740,13 +23740,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>320.9221264348271</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>67.34887114940727</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>45.35963017114011</v>
+        <v>398.8836990142266</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>71.14829163864471</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>212.5354044354234</v>
       </c>
       <c r="U17" t="n">
-        <v>255.6584024877743</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>38.90336735956998</v>
       </c>
       <c r="X17" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>47.75982850157197</v>
       </c>
     </row>
     <row r="18">
@@ -23810,10 +23810,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>13.01157295253077</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -23828,7 +23828,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>45.54606290860439</v>
+        <v>45.54606290860438</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23873,7 +23873,7 @@
         <v>202.9234074721264</v>
       </c>
       <c r="W18" t="n">
-        <v>129.3424174002012</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>163.9610376319913</v>
       </c>
       <c r="H19" t="n">
-        <v>136.7271384939178</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>79.7239485572547</v>
+        <v>79.72394855725469</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>18.08995158650412</v>
+        <v>18.08995158650411</v>
       </c>
       <c r="S19" t="n">
         <v>157.3959181317836</v>
@@ -23946,10 +23946,10 @@
         <v>238.199769595833</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>250.4069938879347</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -23958,7 +23958,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>58.86484330312098</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -23968,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>62.12581180552826</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>69.10765384374639</v>
+        <v>69.10765384374622</v>
       </c>
       <c r="D20" t="n">
-        <v>107.675694769859</v>
+        <v>178.8239864085038</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>68.19310161053437</v>
       </c>
       <c r="F20" t="n">
-        <v>67.34887114940727</v>
+        <v>67.3488711494071</v>
       </c>
       <c r="G20" t="n">
         <v>398.8836990142266</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>71.14829163864472</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>212.5354044354234</v>
@@ -24053,19 +24053,19 @@
         <v>116.3308444476703</v>
       </c>
       <c r="D21" t="n">
-        <v>102.8015588998678</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>103.6549143897921</v>
       </c>
       <c r="F21" t="n">
-        <v>92.70937201392488</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>92.35776202894547</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>45.54606290860438</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24101,7 +24101,7 @@
         <v>66.47844324997878</v>
       </c>
       <c r="T21" t="n">
-        <v>137.416053885909</v>
+        <v>74.27547081767847</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24116,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>17.54827071576742</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="22">
@@ -24147,7 +24147,7 @@
         <v>136.7271384939178</v>
       </c>
       <c r="I22" t="n">
-        <v>79.7239485572547</v>
+        <v>79.72394855725469</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>18.08995158650412</v>
+        <v>18.08995158650411</v>
       </c>
       <c r="S22" t="n">
         <v>157.3959181317836</v>
@@ -24183,13 +24183,13 @@
         <v>238.199769595833</v>
       </c>
       <c r="U22" t="n">
-        <v>113.679855394017</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>106.8893824651776</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
@@ -24208,19 +24208,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>99.09387231966144</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>398.012519220714</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>51.29628209397736</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>208.7218148893222</v>
       </c>
       <c r="U23" t="n">
-        <v>255.5887081042933</v>
+        <v>132.8767489622614</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24369,13 +24369,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>163.5702563680571</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0.5190049372437358</v>
+        <v>0.5190049372437429</v>
       </c>
       <c r="S25" t="n">
         <v>150.5856664684936</v>
@@ -24420,19 +24420,19 @@
         <v>236.5300678317505</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3267416342995</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>6.065471068204261</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>138.3309805588065</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>398.012519220714</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>124.6029710926031</v>
+        <v>271.5073585269046</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>51.29628209397736</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>208.7218148893222</v>
+        <v>97.28959350674113</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>141.0823790860051</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
@@ -24609,7 +24609,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>31.76045286951529</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
@@ -24618,7 +24618,7 @@
         <v>163.5702563680571</v>
       </c>
       <c r="H28" t="n">
-        <v>133.2527378018481</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>67.97209018366931</v>
@@ -24657,19 +24657,19 @@
         <v>236.5300678317505</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3267416342995</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -24682,7 +24682,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>419.0596946068497</v>
@@ -24736,7 +24736,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>255.5887081042933</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24745,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>49.30054318765036</v>
+        <v>326.2370766341181</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>102.3262839566069</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
@@ -24855,7 +24855,7 @@
         <v>163.5702563680571</v>
       </c>
       <c r="H31" t="n">
-        <v>133.2527378018481</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>67.97209018366931</v>
@@ -24888,25 +24888,25 @@
         <v>0.5190049372437429</v>
       </c>
       <c r="S31" t="n">
-        <v>150.5856664684936</v>
+        <v>17.79999554933389</v>
       </c>
       <c r="T31" t="n">
         <v>236.5300678317505</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3267416342995</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24931,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>62.4778429495999</v>
+        <v>92.42629970140297</v>
       </c>
       <c r="H32" t="n">
         <v>271.5073585269046</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>51.29628209397736</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>208.7218148893222</v>
@@ -24985,7 +24985,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25083,16 +25083,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.5702563680571</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>56.0736100788757</v>
       </c>
       <c r="I34" t="n">
         <v>67.97209018366931</v>
@@ -25128,7 +25128,7 @@
         <v>150.5856664684936</v>
       </c>
       <c r="T34" t="n">
-        <v>51.48955290135581</v>
+        <v>236.5300678317505</v>
       </c>
       <c r="U34" t="n">
         <v>277.3267416342995</v>
@@ -25140,7 +25140,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -25156,19 +25156,19 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>309.0271604861513</v>
       </c>
       <c r="D35" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>29.67312184450623</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>271.5073585269046</v>
@@ -25204,19 +25204,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>51.29628209397736</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>208.7218148893222</v>
       </c>
       <c r="U35" t="n">
-        <v>255.5887081042933</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>141.2720440859947</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>163.5702563680571</v>
       </c>
       <c r="H37" t="n">
-        <v>133.2527378018481</v>
+        <v>130.0101086955254</v>
       </c>
       <c r="I37" t="n">
         <v>67.97209018366931</v>
@@ -25365,13 +25365,13 @@
         <v>150.5856664684936</v>
       </c>
       <c r="T37" t="n">
-        <v>236.5300678317505</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>277.3267416342995</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -25380,7 +25380,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25396,19 +25396,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>324.031258675552</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>206.7894736925454</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>271.5073585269046</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>51.29628209397736</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>208.7218148893222</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.5887081042933</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25554,13 +25554,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
         <v>163.5702563680571</v>
@@ -25599,19 +25599,19 @@
         <v>0.5190049372437429</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>150.5856664684936</v>
       </c>
       <c r="T40" t="n">
         <v>236.5300678317505</v>
       </c>
       <c r="U40" t="n">
-        <v>102.0257904457915</v>
+        <v>6.065471068204261</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>385.2814835704819</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>203.872485683986</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25684,7 +25684,7 @@
         <v>208.7218148893222</v>
       </c>
       <c r="U41" t="n">
-        <v>255.5887081042933</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
@@ -25696,7 +25696,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25797,7 +25797,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>163.5702563680571</v>
@@ -25842,19 +25842,19 @@
         <v>236.5300678317505</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3267416342995</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>194.3297800931493</v>
       </c>
       <c r="X43" t="n">
-        <v>0.3655606505797095</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -25873,16 +25873,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>398.012519220714</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>144.6944971451129</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>51.29628209397736</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.5887081042933</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
@@ -25933,7 +25933,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>364.1877949669404</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26034,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>163.5702563680571</v>
@@ -26073,13 +26073,13 @@
         <v>0.5190049372437429</v>
       </c>
       <c r="S46" t="n">
-        <v>150.5856664684936</v>
+        <v>49.09338153616068</v>
       </c>
       <c r="T46" t="n">
         <v>236.5300678317505</v>
       </c>
       <c r="U46" t="n">
-        <v>68.65087155085232</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>61313.04680945945</v>
+        <v>61313.04680945944</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>61595.5329749118</v>
+        <v>61595.53297491175</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>258843.5790362367</v>
+        <v>258843.5790362368</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>258843.5790362367</v>
+        <v>258843.5790362368</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>417916.6797989397</v>
+        <v>417916.6797989396</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>417916.6797989398</v>
+        <v>417916.6797989397</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>417916.6797989398</v>
+        <v>417916.6797989397</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>417916.6797989397</v>
+        <v>417916.6797989396</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>417916.6797989398</v>
+        <v>417916.6797989397</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>417916.6797989397</v>
+        <v>417916.6797989398</v>
       </c>
     </row>
   </sheetData>
@@ -26316,40 +26316,40 @@
         <v>24427.19229654657</v>
       </c>
       <c r="C2" t="n">
-        <v>26277.0200611969</v>
+        <v>26277.02006119691</v>
       </c>
       <c r="D2" t="n">
         <v>26398.08556067647</v>
       </c>
       <c r="E2" t="n">
-        <v>110932.9624441014</v>
+        <v>110932.9624441015</v>
       </c>
       <c r="F2" t="n">
-        <v>110932.9624441014</v>
+        <v>110932.9624441015</v>
       </c>
       <c r="G2" t="n">
-        <v>110932.9624441014</v>
+        <v>110932.9624441015</v>
       </c>
       <c r="H2" t="n">
         <v>110932.9624441015</v>
       </c>
       <c r="I2" t="n">
-        <v>179107.1484852597</v>
+        <v>179107.1484852598</v>
       </c>
       <c r="J2" t="n">
+        <v>179107.1484852598</v>
+      </c>
+      <c r="K2" t="n">
         <v>179107.1484852599</v>
       </c>
-      <c r="K2" t="n">
-        <v>179107.1484852598</v>
-      </c>
       <c r="L2" t="n">
-        <v>179107.1484852598</v>
+        <v>179107.1484852599</v>
       </c>
       <c r="M2" t="n">
         <v>179107.1484852599</v>
       </c>
       <c r="N2" t="n">
-        <v>179107.1484852598</v>
+        <v>179107.1484852597</v>
       </c>
       <c r="O2" t="n">
         <v>179107.1484852599</v>
@@ -26371,7 +26371,7 @@
         <v>6698.167324106151</v>
       </c>
       <c r="D3" t="n">
-        <v>422.3904454242819</v>
+        <v>422.3904454242863</v>
       </c>
       <c r="E3" t="n">
         <v>313754.3405050007</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>235999.2542028934</v>
+        <v>235999.2542028931</v>
       </c>
       <c r="J3" t="n">
-        <v>4766.710787430368</v>
+        <v>4766.710787430457</v>
       </c>
       <c r="K3" t="n">
         <v>1361.838499300738</v>
       </c>
       <c r="L3" t="n">
-        <v>89.28587775762547</v>
+        <v>89.28587775762908</v>
       </c>
       <c r="M3" t="n">
-        <v>82152.98292850656</v>
+        <v>82152.98292850658</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,34 +26426,34 @@
         <v>17.41872404354269</v>
       </c>
       <c r="E4" t="n">
-        <v>248.339487055953</v>
+        <v>248.3394870559531</v>
       </c>
       <c r="F4" t="n">
-        <v>248.339487055953</v>
+        <v>248.3394870559531</v>
       </c>
       <c r="G4" t="n">
-        <v>248.339487055953</v>
+        <v>248.3394870559531</v>
       </c>
       <c r="H4" t="n">
-        <v>248.339487055953</v>
+        <v>248.3394870559532</v>
       </c>
       <c r="I4" t="n">
-        <v>440.4537918539643</v>
+        <v>440.4537918539642</v>
       </c>
       <c r="J4" t="n">
-        <v>440.4537918539642</v>
+        <v>440.4537918539641</v>
       </c>
       <c r="K4" t="n">
         <v>440.4537918539642</v>
       </c>
       <c r="L4" t="n">
-        <v>440.4537918539642</v>
+        <v>440.4537918539641</v>
       </c>
       <c r="M4" t="n">
         <v>440.4537918539642</v>
       </c>
       <c r="N4" t="n">
-        <v>440.4537918539642</v>
+        <v>440.4537918539641</v>
       </c>
       <c r="O4" t="n">
         <v>440.4537918539642</v>
@@ -26475,22 +26475,22 @@
         <v>36863.06036917747</v>
       </c>
       <c r="D5" t="n">
-        <v>36892.4719640909</v>
+        <v>36892.47196409089</v>
       </c>
       <c r="E5" t="n">
-        <v>29151.03873621162</v>
+        <v>29151.03873621163</v>
       </c>
       <c r="F5" t="n">
-        <v>29151.03873621162</v>
+        <v>29151.03873621163</v>
       </c>
       <c r="G5" t="n">
-        <v>29151.03873621162</v>
+        <v>29151.03873621163</v>
       </c>
       <c r="H5" t="n">
-        <v>29151.03873621162</v>
+        <v>29151.03873621163</v>
       </c>
       <c r="I5" t="n">
-        <v>50537.10295659398</v>
+        <v>50537.10295659395</v>
       </c>
       <c r="J5" t="n">
         <v>50537.10295659397</v>
@@ -26505,7 +26505,7 @@
         <v>50537.10295659397</v>
       </c>
       <c r="N5" t="n">
-        <v>50537.10295659397</v>
+        <v>50537.10295659395</v>
       </c>
       <c r="O5" t="n">
         <v>50537.10295659397</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-92666.90805233299</v>
+        <v>-94006.69475904401</v>
       </c>
       <c r="C6" t="n">
-        <v>-17301.35985777841</v>
+        <v>-18632.33786084824</v>
       </c>
       <c r="D6" t="n">
-        <v>-10934.19557288225</v>
+        <v>-12264.5970735736</v>
       </c>
       <c r="E6" t="n">
-        <v>-232220.7562841668</v>
+        <v>-233148.61075208</v>
       </c>
       <c r="F6" t="n">
-        <v>81533.58422083386</v>
+        <v>80605.72975292077</v>
       </c>
       <c r="G6" t="n">
-        <v>81533.58422083387</v>
+        <v>80605.7297529208</v>
       </c>
       <c r="H6" t="n">
-        <v>81533.58422083392</v>
+        <v>80605.72975292076</v>
       </c>
       <c r="I6" t="n">
-        <v>-107869.6624660816</v>
+        <v>-108472.877952846</v>
       </c>
       <c r="J6" t="n">
-        <v>123362.8809493815</v>
+        <v>122759.6654626167</v>
       </c>
       <c r="K6" t="n">
-        <v>126767.7532375111</v>
+        <v>126164.5377507464</v>
       </c>
       <c r="L6" t="n">
-        <v>128040.3058590543</v>
+        <v>127437.0903722896</v>
       </c>
       <c r="M6" t="n">
-        <v>45976.60880830536</v>
+        <v>45373.39332154059</v>
       </c>
       <c r="N6" t="n">
-        <v>128129.5917368119</v>
+        <v>127526.376250047</v>
       </c>
       <c r="O6" t="n">
-        <v>128129.5917368119</v>
+        <v>127526.3762500472</v>
       </c>
       <c r="P6" t="n">
-        <v>128129.591736812</v>
+        <v>127526.3762500471</v>
       </c>
     </row>
   </sheetData>
@@ -26752,13 +26752,13 @@
         <v>351.2282270895396</v>
       </c>
       <c r="G3" t="n">
-        <v>351.2282270895396</v>
+        <v>351.2282270895397</v>
       </c>
       <c r="H3" t="n">
-        <v>351.2282270895396</v>
+        <v>351.2282270895397</v>
       </c>
       <c r="I3" t="n">
-        <v>567.9342007257878</v>
+        <v>567.9342007257877</v>
       </c>
       <c r="J3" t="n">
         <v>567.9342007257877</v>
@@ -26795,22 +26795,22 @@
         <v>23.50971295904437</v>
       </c>
       <c r="D4" t="n">
-        <v>23.86249467691512</v>
+        <v>23.86249467691514</v>
       </c>
       <c r="E4" t="n">
-        <v>353.5240688430865</v>
+        <v>353.5240688430866</v>
       </c>
       <c r="F4" t="n">
-        <v>353.5240688430865</v>
+        <v>353.5240688430866</v>
       </c>
       <c r="G4" t="n">
-        <v>353.5240688430865</v>
+        <v>353.5240688430866</v>
       </c>
       <c r="H4" t="n">
-        <v>353.5240688430865</v>
+        <v>353.5240688430866</v>
       </c>
       <c r="I4" t="n">
-        <v>627.568049025852</v>
+        <v>627.5680490258517</v>
       </c>
       <c r="J4" t="n">
         <v>627.5680490258519</v>
@@ -26825,7 +26825,7 @@
         <v>627.5680490258519</v>
       </c>
       <c r="N4" t="n">
-        <v>627.5680490258519</v>
+        <v>627.5680490258517</v>
       </c>
       <c r="O4" t="n">
         <v>627.5680490258519</v>
@@ -26968,7 +26968,7 @@
         <v>0.3652507553614157</v>
       </c>
       <c r="E3" t="n">
-        <v>268.0157368264912</v>
+        <v>268.0157368264913</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>216.7059736362482</v>
+        <v>216.705973636248</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27017,7 +27017,7 @@
         <v>5.29140568874428</v>
       </c>
       <c r="D4" t="n">
-        <v>0.352781717870748</v>
+        <v>0.3527817178707622</v>
       </c>
       <c r="E4" t="n">
         <v>329.6615741661714</v>
@@ -27032,16 +27032,16 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>274.0439801827656</v>
+        <v>274.043980182765</v>
       </c>
       <c r="J4" t="n">
-        <v>18.21830727029998</v>
+        <v>18.21830727030032</v>
       </c>
       <c r="K4" t="n">
         <v>5.29140568874428</v>
       </c>
       <c r="L4" t="n">
-        <v>0.352781717870748</v>
+        <v>0.3527817178707622</v>
       </c>
       <c r="M4" t="n">
         <v>329.6615741661714</v>
@@ -27263,7 +27263,7 @@
         <v>5.29140568874428</v>
       </c>
       <c r="L4" t="n">
-        <v>0.352781717870748</v>
+        <v>0.3527817178707622</v>
       </c>
       <c r="M4" t="n">
         <v>329.6615741661714</v>
@@ -31135,7 +31135,7 @@
         <v>26.87252322575216</v>
       </c>
       <c r="L3" t="n">
-        <v>36.13342375236605</v>
+        <v>27.3123227383189</v>
       </c>
       <c r="M3" t="n">
         <v>41.31508778262807</v>
@@ -31147,7 +31147,7 @@
         <v>39.5945831389678</v>
       </c>
       <c r="P3" t="n">
-        <v>22.95704267508554</v>
+        <v>31.77814368913268</v>
       </c>
       <c r="Q3" t="n">
         <v>21.24284748790751</v>
@@ -31375,10 +31375,10 @@
         <v>38.69200558328342</v>
       </c>
       <c r="M6" t="n">
-        <v>45.15174553168937</v>
+        <v>38.6391521129061</v>
       </c>
       <c r="N6" t="n">
-        <v>38.34014775380277</v>
+        <v>44.85274117258604</v>
       </c>
       <c r="O6" t="n">
         <v>42.3982471846556</v>
@@ -31606,7 +31606,7 @@
         <v>16.91019106373891</v>
       </c>
       <c r="K9" t="n">
-        <v>22.49997188159407</v>
+        <v>28.90220994353445</v>
       </c>
       <c r="L9" t="n">
         <v>38.86258802332273</v>
@@ -31615,7 +31615,7 @@
         <v>45.35080719336135</v>
       </c>
       <c r="N9" t="n">
-        <v>45.20552289045679</v>
+        <v>38.80328482851647</v>
       </c>
       <c r="O9" t="n">
         <v>42.58516942735456</v>
@@ -31752,10 +31752,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.411972772219253</v>
+        <v>1.411972772219254</v>
       </c>
       <c r="H11" t="n">
-        <v>14.46036615349043</v>
+        <v>14.46036615349044</v>
       </c>
       <c r="I11" t="n">
         <v>54.43508030098283</v>
@@ -31767,7 +31767,7 @@
         <v>179.608231524185</v>
       </c>
       <c r="L11" t="n">
-        <v>222.81989325199</v>
+        <v>222.8198932519901</v>
       </c>
       <c r="M11" t="n">
         <v>247.9300640399442</v>
@@ -31776,7 +31776,7 @@
         <v>251.9418316790122</v>
       </c>
       <c r="O11" t="n">
-        <v>237.9015274252569</v>
+        <v>237.901527425257</v>
       </c>
       <c r="P11" t="n">
         <v>203.0434496110941</v>
@@ -31785,13 +31785,13 @@
         <v>152.477174705992</v>
       </c>
       <c r="R11" t="n">
-        <v>88.69483465291776</v>
+        <v>88.69483465291778</v>
       </c>
       <c r="S11" t="n">
-        <v>32.17532954694627</v>
+        <v>32.17532954694628</v>
       </c>
       <c r="T11" t="n">
-        <v>6.180910810389785</v>
+        <v>6.180910810389786</v>
       </c>
       <c r="U11" t="n">
         <v>0.1129578217775403</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7554720356265568</v>
+        <v>0.755472035626557</v>
       </c>
       <c r="H12" t="n">
-        <v>7.296269396709116</v>
+        <v>7.296269396709118</v>
       </c>
       <c r="I12" t="n">
         <v>26.01076964766874</v>
@@ -31861,10 +31861,10 @@
         <v>144.2620240662677</v>
       </c>
       <c r="Q12" t="n">
-        <v>96.43534265296189</v>
+        <v>96.43534265296192</v>
       </c>
       <c r="R12" t="n">
-        <v>46.90553568565589</v>
+        <v>46.9055356856559</v>
       </c>
       <c r="S12" t="n">
         <v>14.03256171437924</v>
@@ -31873,7 +31873,7 @@
         <v>3.045082459389498</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04970210760701034</v>
+        <v>0.04970210760701035</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,31 +31910,31 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6333623767188418</v>
+        <v>0.6333623767188419</v>
       </c>
       <c r="H13" t="n">
-        <v>5.631167313009343</v>
+        <v>5.631167313009344</v>
       </c>
       <c r="I13" t="n">
         <v>19.04693401987209</v>
       </c>
       <c r="J13" t="n">
-        <v>44.77872003402211</v>
+        <v>44.77872003402212</v>
       </c>
       <c r="K13" t="n">
-        <v>73.5851924951527</v>
+        <v>73.58519249515271</v>
       </c>
       <c r="L13" t="n">
-        <v>94.16371189872673</v>
+        <v>94.16371189872675</v>
       </c>
       <c r="M13" t="n">
-        <v>99.28243147057262</v>
+        <v>99.28243147057263</v>
       </c>
       <c r="N13" t="n">
-        <v>96.92171715734793</v>
+        <v>96.92171715734794</v>
       </c>
       <c r="O13" t="n">
-        <v>89.52289302931415</v>
+        <v>89.52289302931416</v>
       </c>
       <c r="P13" t="n">
         <v>76.60230054424972</v>
@@ -31943,7 +31943,7 @@
         <v>53.03546229052048</v>
       </c>
       <c r="R13" t="n">
-        <v>28.47827559319446</v>
+        <v>28.47827559319447</v>
       </c>
       <c r="S13" t="n">
         <v>11.0377788742729</v>
@@ -31952,7 +31952,7 @@
         <v>2.70618470052596</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03454703873011868</v>
+        <v>0.03454703873011869</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,10 +31989,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.411972772219253</v>
+        <v>1.411972772219254</v>
       </c>
       <c r="H14" t="n">
-        <v>14.46036615349043</v>
+        <v>14.46036615349044</v>
       </c>
       <c r="I14" t="n">
         <v>54.43508030098283</v>
@@ -32004,7 +32004,7 @@
         <v>179.608231524185</v>
       </c>
       <c r="L14" t="n">
-        <v>222.81989325199</v>
+        <v>222.8198932519901</v>
       </c>
       <c r="M14" t="n">
         <v>247.9300640399442</v>
@@ -32013,7 +32013,7 @@
         <v>251.9418316790122</v>
       </c>
       <c r="O14" t="n">
-        <v>237.9015274252569</v>
+        <v>237.901527425257</v>
       </c>
       <c r="P14" t="n">
         <v>203.0434496110941</v>
@@ -32022,13 +32022,13 @@
         <v>152.477174705992</v>
       </c>
       <c r="R14" t="n">
-        <v>88.69483465291776</v>
+        <v>88.69483465291778</v>
       </c>
       <c r="S14" t="n">
-        <v>32.17532954694627</v>
+        <v>32.17532954694628</v>
       </c>
       <c r="T14" t="n">
-        <v>6.180910810389785</v>
+        <v>6.180910810389786</v>
       </c>
       <c r="U14" t="n">
         <v>0.1129578217775403</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7554720356265568</v>
+        <v>0.755472035626557</v>
       </c>
       <c r="H15" t="n">
-        <v>7.296269396709116</v>
+        <v>7.296269396709118</v>
       </c>
       <c r="I15" t="n">
         <v>26.01076964766874</v>
@@ -32098,10 +32098,10 @@
         <v>144.2620240662677</v>
       </c>
       <c r="Q15" t="n">
-        <v>96.43534265296189</v>
+        <v>96.43534265296192</v>
       </c>
       <c r="R15" t="n">
-        <v>46.90553568565589</v>
+        <v>46.9055356856559</v>
       </c>
       <c r="S15" t="n">
         <v>14.03256171437924</v>
@@ -32110,7 +32110,7 @@
         <v>3.045082459389498</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04970210760701034</v>
+        <v>0.04970210760701035</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,31 +32147,31 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6333623767188418</v>
+        <v>0.6333623767188419</v>
       </c>
       <c r="H16" t="n">
-        <v>5.631167313009343</v>
+        <v>5.631167313009344</v>
       </c>
       <c r="I16" t="n">
         <v>19.04693401987209</v>
       </c>
       <c r="J16" t="n">
-        <v>44.77872003402211</v>
+        <v>44.77872003402212</v>
       </c>
       <c r="K16" t="n">
-        <v>73.5851924951527</v>
+        <v>73.58519249515271</v>
       </c>
       <c r="L16" t="n">
-        <v>94.16371189872673</v>
+        <v>94.16371189872675</v>
       </c>
       <c r="M16" t="n">
-        <v>99.28243147057262</v>
+        <v>99.28243147057263</v>
       </c>
       <c r="N16" t="n">
-        <v>96.92171715734793</v>
+        <v>96.92171715734794</v>
       </c>
       <c r="O16" t="n">
-        <v>89.52289302931415</v>
+        <v>89.52289302931416</v>
       </c>
       <c r="P16" t="n">
         <v>76.60230054424972</v>
@@ -32180,7 +32180,7 @@
         <v>53.03546229052048</v>
       </c>
       <c r="R16" t="n">
-        <v>28.47827559319446</v>
+        <v>28.47827559319447</v>
       </c>
       <c r="S16" t="n">
         <v>11.0377788742729</v>
@@ -32189,7 +32189,7 @@
         <v>2.70618470052596</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03454703873011868</v>
+        <v>0.03454703873011869</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,46 +32226,46 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.411972772219253</v>
+        <v>1.411972772219254</v>
       </c>
       <c r="H17" t="n">
-        <v>14.46036615349043</v>
+        <v>14.46036615349044</v>
       </c>
       <c r="I17" t="n">
-        <v>54.43508030098283</v>
+        <v>54.43508030098284</v>
       </c>
       <c r="J17" t="n">
         <v>119.839424076144</v>
       </c>
       <c r="K17" t="n">
-        <v>179.608231524185</v>
+        <v>179.6082315241851</v>
       </c>
       <c r="L17" t="n">
-        <v>222.81989325199</v>
+        <v>222.8198932519901</v>
       </c>
       <c r="M17" t="n">
-        <v>247.9300640399442</v>
+        <v>247.9300640399443</v>
       </c>
       <c r="N17" t="n">
         <v>251.9418316790122</v>
       </c>
       <c r="O17" t="n">
-        <v>237.9015274252569</v>
+        <v>237.901527425257</v>
       </c>
       <c r="P17" t="n">
-        <v>203.0434496110941</v>
+        <v>203.0434496110942</v>
       </c>
       <c r="Q17" t="n">
-        <v>152.477174705992</v>
+        <v>152.4771747059921</v>
       </c>
       <c r="R17" t="n">
-        <v>88.69483465291776</v>
+        <v>88.69483465291779</v>
       </c>
       <c r="S17" t="n">
-        <v>32.17532954694627</v>
+        <v>32.17532954694628</v>
       </c>
       <c r="T17" t="n">
-        <v>6.180910810389785</v>
+        <v>6.180910810389787</v>
       </c>
       <c r="U17" t="n">
         <v>0.1129578217775403</v>
@@ -32305,22 +32305,22 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7554720356265568</v>
+        <v>0.7554720356265571</v>
       </c>
       <c r="H18" t="n">
-        <v>7.296269396709116</v>
+        <v>7.296269396709119</v>
       </c>
       <c r="I18" t="n">
-        <v>26.01076964766874</v>
+        <v>26.01076964766875</v>
       </c>
       <c r="J18" t="n">
-        <v>71.3755399975073</v>
+        <v>71.37553999750732</v>
       </c>
       <c r="K18" t="n">
         <v>121.9921663844866</v>
       </c>
       <c r="L18" t="n">
-        <v>164.0335224723364</v>
+        <v>164.0335224723365</v>
       </c>
       <c r="M18" t="n">
         <v>191.4193837637991</v>
@@ -32335,19 +32335,19 @@
         <v>144.2620240662677</v>
       </c>
       <c r="Q18" t="n">
-        <v>96.43534265296189</v>
+        <v>96.43534265296194</v>
       </c>
       <c r="R18" t="n">
-        <v>46.90553568565589</v>
+        <v>46.90553568565591</v>
       </c>
       <c r="S18" t="n">
         <v>14.03256171437924</v>
       </c>
       <c r="T18" t="n">
-        <v>3.045082459389498</v>
+        <v>3.045082459389499</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04970210760701034</v>
+        <v>0.04970210760701035</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6333623767188418</v>
+        <v>0.633362376718842</v>
       </c>
       <c r="H19" t="n">
-        <v>5.631167313009343</v>
+        <v>5.631167313009345</v>
       </c>
       <c r="I19" t="n">
         <v>19.04693401987209</v>
       </c>
       <c r="J19" t="n">
-        <v>44.77872003402211</v>
+        <v>44.77872003402213</v>
       </c>
       <c r="K19" t="n">
-        <v>73.5851924951527</v>
+        <v>73.58519249515273</v>
       </c>
       <c r="L19" t="n">
-        <v>94.16371189872673</v>
+        <v>94.16371189872676</v>
       </c>
       <c r="M19" t="n">
-        <v>99.28243147057262</v>
+        <v>99.28243147057265</v>
       </c>
       <c r="N19" t="n">
-        <v>96.92171715734793</v>
+        <v>96.92171715734796</v>
       </c>
       <c r="O19" t="n">
-        <v>89.52289302931415</v>
+        <v>89.52289302931418</v>
       </c>
       <c r="P19" t="n">
-        <v>76.60230054424972</v>
+        <v>76.60230054424973</v>
       </c>
       <c r="Q19" t="n">
-        <v>53.03546229052048</v>
+        <v>53.03546229052049</v>
       </c>
       <c r="R19" t="n">
-        <v>28.47827559319446</v>
+        <v>28.47827559319447</v>
       </c>
       <c r="S19" t="n">
-        <v>11.0377788742729</v>
+        <v>11.03777887427291</v>
       </c>
       <c r="T19" t="n">
-        <v>2.70618470052596</v>
+        <v>2.706184700525961</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03454703873011868</v>
+        <v>0.0345470387301187</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,46 +32463,46 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.411972772219253</v>
+        <v>1.411972772219254</v>
       </c>
       <c r="H20" t="n">
-        <v>14.46036615349043</v>
+        <v>14.46036615349044</v>
       </c>
       <c r="I20" t="n">
-        <v>54.43508030098283</v>
+        <v>54.43508030098284</v>
       </c>
       <c r="J20" t="n">
         <v>119.839424076144</v>
       </c>
       <c r="K20" t="n">
-        <v>179.608231524185</v>
+        <v>179.6082315241851</v>
       </c>
       <c r="L20" t="n">
-        <v>222.81989325199</v>
+        <v>222.8198932519901</v>
       </c>
       <c r="M20" t="n">
-        <v>247.9300640399442</v>
+        <v>247.9300640399443</v>
       </c>
       <c r="N20" t="n">
         <v>251.9418316790122</v>
       </c>
       <c r="O20" t="n">
-        <v>237.9015274252569</v>
+        <v>237.901527425257</v>
       </c>
       <c r="P20" t="n">
-        <v>203.0434496110941</v>
+        <v>203.0434496110942</v>
       </c>
       <c r="Q20" t="n">
-        <v>152.477174705992</v>
+        <v>152.4771747059921</v>
       </c>
       <c r="R20" t="n">
-        <v>88.69483465291776</v>
+        <v>88.69483465291779</v>
       </c>
       <c r="S20" t="n">
-        <v>32.17532954694627</v>
+        <v>32.17532954694628</v>
       </c>
       <c r="T20" t="n">
-        <v>6.180910810389785</v>
+        <v>6.180910810389787</v>
       </c>
       <c r="U20" t="n">
         <v>0.1129578217775403</v>
@@ -32542,22 +32542,22 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7554720356265568</v>
+        <v>0.7554720356265571</v>
       </c>
       <c r="H21" t="n">
-        <v>7.296269396709116</v>
+        <v>7.296269396709119</v>
       </c>
       <c r="I21" t="n">
-        <v>26.01076964766874</v>
+        <v>26.01076964766875</v>
       </c>
       <c r="J21" t="n">
-        <v>71.3755399975073</v>
+        <v>71.37553999750732</v>
       </c>
       <c r="K21" t="n">
         <v>121.9921663844866</v>
       </c>
       <c r="L21" t="n">
-        <v>164.0335224723364</v>
+        <v>164.0335224723365</v>
       </c>
       <c r="M21" t="n">
         <v>191.4193837637991</v>
@@ -32572,19 +32572,19 @@
         <v>144.2620240662677</v>
       </c>
       <c r="Q21" t="n">
-        <v>96.43534265296189</v>
+        <v>96.43534265296194</v>
       </c>
       <c r="R21" t="n">
-        <v>46.90553568565589</v>
+        <v>46.90553568565591</v>
       </c>
       <c r="S21" t="n">
         <v>14.03256171437924</v>
       </c>
       <c r="T21" t="n">
-        <v>3.045082459389498</v>
+        <v>3.045082459389499</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04970210760701034</v>
+        <v>0.04970210760701035</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6333623767188418</v>
+        <v>0.633362376718842</v>
       </c>
       <c r="H22" t="n">
-        <v>5.631167313009343</v>
+        <v>5.631167313009345</v>
       </c>
       <c r="I22" t="n">
         <v>19.04693401987209</v>
       </c>
       <c r="J22" t="n">
-        <v>44.77872003402211</v>
+        <v>44.77872003402213</v>
       </c>
       <c r="K22" t="n">
-        <v>73.5851924951527</v>
+        <v>73.58519249515273</v>
       </c>
       <c r="L22" t="n">
-        <v>94.16371189872673</v>
+        <v>94.16371189872676</v>
       </c>
       <c r="M22" t="n">
-        <v>99.28243147057262</v>
+        <v>99.28243147057265</v>
       </c>
       <c r="N22" t="n">
-        <v>96.92171715734793</v>
+        <v>96.92171715734796</v>
       </c>
       <c r="O22" t="n">
-        <v>89.52289302931415</v>
+        <v>89.52289302931418</v>
       </c>
       <c r="P22" t="n">
-        <v>76.60230054424972</v>
+        <v>76.60230054424973</v>
       </c>
       <c r="Q22" t="n">
-        <v>53.03546229052048</v>
+        <v>53.03546229052049</v>
       </c>
       <c r="R22" t="n">
-        <v>28.47827559319446</v>
+        <v>28.47827559319447</v>
       </c>
       <c r="S22" t="n">
-        <v>11.0377788742729</v>
+        <v>11.03777887427291</v>
       </c>
       <c r="T22" t="n">
-        <v>2.70618470052596</v>
+        <v>2.706184700525961</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03454703873011868</v>
+        <v>0.0345470387301187</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,34 +32700,34 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.283152565731809</v>
+        <v>2.283152565731808</v>
       </c>
       <c r="H23" t="n">
         <v>23.38233621380089</v>
       </c>
       <c r="I23" t="n">
-        <v>88.02123929037563</v>
+        <v>88.02123929037562</v>
       </c>
       <c r="J23" t="n">
-        <v>193.7797200757803</v>
+        <v>193.7797200757802</v>
       </c>
       <c r="K23" t="n">
-        <v>290.4255681832078</v>
+        <v>290.4255681832077</v>
       </c>
       <c r="L23" t="n">
-        <v>360.2985985167227</v>
+        <v>360.2985985167226</v>
       </c>
       <c r="M23" t="n">
-        <v>400.9016129575558</v>
+        <v>400.9016129575556</v>
       </c>
       <c r="N23" t="n">
-        <v>407.3886201849413</v>
+        <v>407.3886201849412</v>
       </c>
       <c r="O23" t="n">
-        <v>384.6855218594456</v>
+        <v>384.6855218594455</v>
       </c>
       <c r="P23" t="n">
-        <v>328.3201928929415</v>
+        <v>328.3201928929414</v>
       </c>
       <c r="Q23" t="n">
         <v>246.554791632671</v>
@@ -32736,10 +32736,10 @@
         <v>143.4190823571508</v>
       </c>
       <c r="S23" t="n">
-        <v>52.02733909161364</v>
+        <v>52.02733909161363</v>
       </c>
       <c r="T23" t="n">
-        <v>9.994500356490997</v>
+        <v>9.994500356490995</v>
       </c>
       <c r="U23" t="n">
         <v>0.1826522052585446</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.221594318542261</v>
+        <v>1.22159431854226</v>
       </c>
       <c r="H24" t="n">
         <v>11.79802933960552</v>
       </c>
       <c r="I24" t="n">
-        <v>42.05927807261731</v>
+        <v>42.0592780726173</v>
       </c>
       <c r="J24" t="n">
         <v>115.4138737531528</v>
       </c>
       <c r="K24" t="n">
-        <v>197.2606930954843</v>
+        <v>197.2606930954842</v>
       </c>
       <c r="L24" t="n">
         <v>265.2413453483974</v>
       </c>
       <c r="M24" t="n">
-        <v>309.5241393955543</v>
+        <v>309.5241393955542</v>
       </c>
       <c r="N24" t="n">
-        <v>317.716322347533</v>
+        <v>317.7163223475329</v>
       </c>
       <c r="O24" t="n">
-        <v>290.6483640261492</v>
+        <v>290.6483640261491</v>
       </c>
       <c r="P24" t="n">
         <v>233.2709361433901</v>
@@ -32812,16 +32812,16 @@
         <v>155.9354431879559</v>
       </c>
       <c r="R24" t="n">
-        <v>75.84600514598354</v>
+        <v>75.84600514598353</v>
       </c>
       <c r="S24" t="n">
-        <v>22.69057867994066</v>
+        <v>22.69057867994065</v>
       </c>
       <c r="T24" t="n">
-        <v>4.923882362896215</v>
+        <v>4.923882362896214</v>
       </c>
       <c r="U24" t="n">
-        <v>0.08036804727251719</v>
+        <v>0.08036804727251716</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,13 +32861,13 @@
         <v>1.02414364065306</v>
       </c>
       <c r="H25" t="n">
-        <v>9.10556800507903</v>
+        <v>9.105568005079029</v>
       </c>
       <c r="I25" t="n">
         <v>30.79879239345748</v>
       </c>
       <c r="J25" t="n">
-        <v>72.40695539417133</v>
+        <v>72.40695539417132</v>
       </c>
       <c r="K25" t="n">
         <v>118.9868702504191</v>
@@ -32882,25 +32882,25 @@
         <v>156.7219082101179</v>
       </c>
       <c r="O25" t="n">
-        <v>144.7580484079435</v>
+        <v>144.7580484079434</v>
       </c>
       <c r="P25" t="n">
         <v>123.8655181386209</v>
       </c>
       <c r="Q25" t="n">
-        <v>85.75806430959396</v>
+        <v>85.75806430959395</v>
       </c>
       <c r="R25" t="n">
-        <v>46.04922224245485</v>
+        <v>46.04922224245484</v>
       </c>
       <c r="S25" t="n">
-        <v>17.84803053756287</v>
+        <v>17.84803053756286</v>
       </c>
       <c r="T25" t="n">
-        <v>4.375886464608528</v>
+        <v>4.375886464608527</v>
       </c>
       <c r="U25" t="n">
-        <v>0.05586238039925788</v>
+        <v>0.05586238039925787</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34365,7 +34365,7 @@
         <v>23.38233621380089</v>
       </c>
       <c r="I44" t="n">
-        <v>88.02123929037602</v>
+        <v>88.02123929037562</v>
       </c>
       <c r="J44" t="n">
         <v>193.7797200757802</v>
@@ -34380,7 +34380,7 @@
         <v>400.9016129575556</v>
       </c>
       <c r="N44" t="n">
-        <v>407.3886201849412</v>
+        <v>407.3886201849418</v>
       </c>
       <c r="O44" t="n">
         <v>384.6855218594455</v>
@@ -34783,7 +34783,7 @@
         <v>4.473289392418824</v>
       </c>
       <c r="L3" t="n">
-        <v>13.61833703813649</v>
+        <v>4.797236024089349</v>
       </c>
       <c r="M3" t="n">
         <v>18.21830727030009</v>
@@ -34795,7 +34795,7 @@
         <v>16.42269341674558</v>
       </c>
       <c r="P3" t="n">
-        <v>1.186201470256872</v>
+        <v>10.00730248430401</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35023,10 +35023,10 @@
         <v>16.17691886905386</v>
       </c>
       <c r="M6" t="n">
-        <v>22.05496501936139</v>
+        <v>15.54237160057813</v>
       </c>
       <c r="N6" t="n">
-        <v>16.99711954026111</v>
+        <v>23.50971295904437</v>
       </c>
       <c r="O6" t="n">
         <v>19.22635746243337</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1007380482607362</v>
+        <v>6.502976110201111</v>
       </c>
       <c r="L9" t="n">
         <v>16.34750130909317</v>
@@ -35263,7 +35263,7 @@
         <v>22.25402668103337</v>
       </c>
       <c r="N9" t="n">
-        <v>23.86249467691512</v>
+        <v>17.4602566149748</v>
       </c>
       <c r="O9" t="n">
         <v>19.41327970513234</v>
@@ -35406,25 +35406,25 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>19.88717775701932</v>
+        <v>19.88717775701933</v>
       </c>
       <c r="J11" t="n">
-        <v>90.41946459055745</v>
+        <v>90.41946459055748</v>
       </c>
       <c r="K11" t="n">
         <v>143.8436307293757</v>
       </c>
       <c r="L11" t="n">
-        <v>184.5078508193671</v>
+        <v>184.5078508193672</v>
       </c>
       <c r="M11" t="n">
         <v>210.4988011405124</v>
       </c>
       <c r="N11" t="n">
-        <v>214.6622088445661</v>
+        <v>214.6622088445662</v>
       </c>
       <c r="O11" t="n">
-        <v>200.5105680692328</v>
+        <v>200.5105680692329</v>
       </c>
       <c r="P11" t="n">
         <v>165.4680878008628</v>
@@ -35433,7 +35433,7 @@
         <v>116.352500101394</v>
       </c>
       <c r="R11" t="n">
-        <v>53.66218475812129</v>
+        <v>53.66218475812131</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>9.838382897668737</v>
+        <v>9.83838289766874</v>
       </c>
       <c r="J12" t="n">
         <v>50.76442566417397</v>
       </c>
       <c r="K12" t="n">
-        <v>99.59293255115327</v>
+        <v>99.59293255115328</v>
       </c>
       <c r="L12" t="n">
-        <v>141.5184357581068</v>
+        <v>141.5184357581069</v>
       </c>
       <c r="M12" t="n">
         <v>168.3226032514711</v>
       </c>
       <c r="N12" t="n">
-        <v>175.142657052332</v>
+        <v>175.1426570523321</v>
       </c>
       <c r="O12" t="n">
-        <v>156.5741257016103</v>
+        <v>156.5741257016104</v>
       </c>
       <c r="P12" t="n">
         <v>122.4911828614391</v>
       </c>
       <c r="Q12" t="n">
-        <v>73.68830436398339</v>
+        <v>73.68830436398342</v>
       </c>
       <c r="R12" t="n">
         <v>23.23261629151175</v>
@@ -35570,25 +35570,25 @@
         <v>24.14196405012025</v>
       </c>
       <c r="K13" t="n">
-        <v>52.6205380424407</v>
+        <v>52.62053804244071</v>
       </c>
       <c r="L13" t="n">
-        <v>72.2449520030255</v>
+        <v>72.24495200302553</v>
       </c>
       <c r="M13" t="n">
-        <v>76.7069915790868</v>
+        <v>76.70699157908682</v>
       </c>
       <c r="N13" t="n">
-        <v>76.17281618174754</v>
+        <v>76.17281618174755</v>
       </c>
       <c r="O13" t="n">
-        <v>67.0237055308897</v>
+        <v>67.02370553088971</v>
       </c>
       <c r="P13" t="n">
         <v>54.22149988626323</v>
       </c>
       <c r="Q13" t="n">
-        <v>28.41589952573553</v>
+        <v>28.41589952573554</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,25 +35643,25 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>19.88717775701932</v>
+        <v>19.88717775701933</v>
       </c>
       <c r="J14" t="n">
-        <v>90.41946459055745</v>
+        <v>90.41946459055748</v>
       </c>
       <c r="K14" t="n">
         <v>143.8436307293757</v>
       </c>
       <c r="L14" t="n">
-        <v>184.5078508193671</v>
+        <v>184.5078508193672</v>
       </c>
       <c r="M14" t="n">
         <v>210.4988011405124</v>
       </c>
       <c r="N14" t="n">
-        <v>214.6622088445661</v>
+        <v>214.6622088445662</v>
       </c>
       <c r="O14" t="n">
-        <v>200.5105680692328</v>
+        <v>200.5105680692329</v>
       </c>
       <c r="P14" t="n">
         <v>165.4680878008628</v>
@@ -35670,7 +35670,7 @@
         <v>116.352500101394</v>
       </c>
       <c r="R14" t="n">
-        <v>53.66218475812129</v>
+        <v>53.66218475812131</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>9.838382897668737</v>
+        <v>9.83838289766874</v>
       </c>
       <c r="J15" t="n">
         <v>50.76442566417397</v>
       </c>
       <c r="K15" t="n">
-        <v>99.59293255115327</v>
+        <v>99.59293255115328</v>
       </c>
       <c r="L15" t="n">
-        <v>141.5184357581068</v>
+        <v>141.5184357581069</v>
       </c>
       <c r="M15" t="n">
         <v>168.3226032514711</v>
       </c>
       <c r="N15" t="n">
-        <v>175.142657052332</v>
+        <v>175.1426570523321</v>
       </c>
       <c r="O15" t="n">
-        <v>156.5741257016103</v>
+        <v>156.5741257016104</v>
       </c>
       <c r="P15" t="n">
         <v>122.4911828614391</v>
       </c>
       <c r="Q15" t="n">
-        <v>73.68830436398339</v>
+        <v>73.68830436398342</v>
       </c>
       <c r="R15" t="n">
         <v>23.23261629151175</v>
@@ -35807,25 +35807,25 @@
         <v>24.14196405012025</v>
       </c>
       <c r="K16" t="n">
-        <v>52.6205380424407</v>
+        <v>52.62053804244071</v>
       </c>
       <c r="L16" t="n">
-        <v>72.2449520030255</v>
+        <v>72.24495200302553</v>
       </c>
       <c r="M16" t="n">
-        <v>76.7069915790868</v>
+        <v>76.70699157908682</v>
       </c>
       <c r="N16" t="n">
-        <v>76.17281618174754</v>
+        <v>76.17281618174755</v>
       </c>
       <c r="O16" t="n">
-        <v>67.0237055308897</v>
+        <v>67.02370553088971</v>
       </c>
       <c r="P16" t="n">
         <v>54.22149988626323</v>
       </c>
       <c r="Q16" t="n">
-        <v>28.41589952573553</v>
+        <v>28.41589952573554</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>19.88717775701932</v>
+        <v>19.88717775701934</v>
       </c>
       <c r="J17" t="n">
-        <v>90.41946459055745</v>
+        <v>90.41946459055748</v>
       </c>
       <c r="K17" t="n">
         <v>143.8436307293757</v>
       </c>
       <c r="L17" t="n">
-        <v>184.5078508193671</v>
+        <v>184.5078508193672</v>
       </c>
       <c r="M17" t="n">
-        <v>210.4988011405124</v>
+        <v>210.4988011405125</v>
       </c>
       <c r="N17" t="n">
-        <v>214.6622088445661</v>
+        <v>214.6622088445662</v>
       </c>
       <c r="O17" t="n">
-        <v>200.5105680692328</v>
+        <v>200.5105680692329</v>
       </c>
       <c r="P17" t="n">
-        <v>165.4680878008628</v>
+        <v>165.4680878008629</v>
       </c>
       <c r="Q17" t="n">
         <v>116.352500101394</v>
       </c>
       <c r="R17" t="n">
-        <v>53.66218475812129</v>
+        <v>53.66218475812132</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>9.838382897668737</v>
+        <v>9.838382897668744</v>
       </c>
       <c r="J18" t="n">
-        <v>50.76442566417397</v>
+        <v>50.76442566417398</v>
       </c>
       <c r="K18" t="n">
-        <v>99.59293255115327</v>
+        <v>99.5929325511533</v>
       </c>
       <c r="L18" t="n">
-        <v>141.5184357581068</v>
+        <v>141.5184357581069</v>
       </c>
       <c r="M18" t="n">
-        <v>168.3226032514711</v>
+        <v>168.3226032514712</v>
       </c>
       <c r="N18" t="n">
-        <v>175.142657052332</v>
+        <v>175.1426570523321</v>
       </c>
       <c r="O18" t="n">
-        <v>156.5741257016103</v>
+        <v>156.5741257016104</v>
       </c>
       <c r="P18" t="n">
         <v>122.4911828614391</v>
       </c>
       <c r="Q18" t="n">
-        <v>73.68830436398339</v>
+        <v>73.68830436398343</v>
       </c>
       <c r="R18" t="n">
-        <v>23.23261629151175</v>
+        <v>23.23261629151176</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>24.14196405012025</v>
+        <v>24.14196405012026</v>
       </c>
       <c r="K19" t="n">
-        <v>52.6205380424407</v>
+        <v>52.62053804244073</v>
       </c>
       <c r="L19" t="n">
-        <v>72.2449520030255</v>
+        <v>72.24495200302553</v>
       </c>
       <c r="M19" t="n">
-        <v>76.7069915790868</v>
+        <v>76.70699157908683</v>
       </c>
       <c r="N19" t="n">
-        <v>76.17281618174754</v>
+        <v>76.17281618174756</v>
       </c>
       <c r="O19" t="n">
-        <v>67.0237055308897</v>
+        <v>67.02370553088973</v>
       </c>
       <c r="P19" t="n">
-        <v>54.22149988626323</v>
+        <v>54.22149988626325</v>
       </c>
       <c r="Q19" t="n">
-        <v>28.41589952573553</v>
+        <v>28.41589952573554</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>19.88717775701932</v>
+        <v>19.88717775701934</v>
       </c>
       <c r="J20" t="n">
-        <v>90.41946459055745</v>
+        <v>90.41946459055748</v>
       </c>
       <c r="K20" t="n">
         <v>143.8436307293757</v>
       </c>
       <c r="L20" t="n">
-        <v>184.5078508193671</v>
+        <v>184.5078508193672</v>
       </c>
       <c r="M20" t="n">
-        <v>210.4988011405124</v>
+        <v>210.4988011405125</v>
       </c>
       <c r="N20" t="n">
-        <v>214.6622088445661</v>
+        <v>214.6622088445662</v>
       </c>
       <c r="O20" t="n">
-        <v>200.5105680692328</v>
+        <v>200.5105680692329</v>
       </c>
       <c r="P20" t="n">
-        <v>165.4680878008628</v>
+        <v>165.4680878008629</v>
       </c>
       <c r="Q20" t="n">
         <v>116.352500101394</v>
       </c>
       <c r="R20" t="n">
-        <v>53.66218475812129</v>
+        <v>53.66218475812132</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>9.838382897668737</v>
+        <v>9.838382897668744</v>
       </c>
       <c r="J21" t="n">
-        <v>50.76442566417397</v>
+        <v>50.76442566417398</v>
       </c>
       <c r="K21" t="n">
-        <v>99.59293255115327</v>
+        <v>99.5929325511533</v>
       </c>
       <c r="L21" t="n">
-        <v>141.5184357581068</v>
+        <v>141.5184357581069</v>
       </c>
       <c r="M21" t="n">
-        <v>168.3226032514711</v>
+        <v>168.3226032514712</v>
       </c>
       <c r="N21" t="n">
-        <v>175.142657052332</v>
+        <v>175.1426570523321</v>
       </c>
       <c r="O21" t="n">
-        <v>156.5741257016103</v>
+        <v>156.5741257016104</v>
       </c>
       <c r="P21" t="n">
         <v>122.4911828614391</v>
       </c>
       <c r="Q21" t="n">
-        <v>73.68830436398339</v>
+        <v>73.68830436398343</v>
       </c>
       <c r="R21" t="n">
-        <v>23.23261629151175</v>
+        <v>23.23261629151176</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>24.14196405012025</v>
+        <v>24.14196405012026</v>
       </c>
       <c r="K22" t="n">
-        <v>52.6205380424407</v>
+        <v>52.62053804244073</v>
       </c>
       <c r="L22" t="n">
-        <v>72.2449520030255</v>
+        <v>72.24495200302553</v>
       </c>
       <c r="M22" t="n">
-        <v>76.7069915790868</v>
+        <v>76.70699157908683</v>
       </c>
       <c r="N22" t="n">
-        <v>76.17281618174754</v>
+        <v>76.17281618174756</v>
       </c>
       <c r="O22" t="n">
-        <v>67.0237055308897</v>
+        <v>67.02370553088973</v>
       </c>
       <c r="P22" t="n">
-        <v>54.22149988626323</v>
+        <v>54.22149988626325</v>
       </c>
       <c r="Q22" t="n">
-        <v>28.41589952573553</v>
+        <v>28.41589952573554</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>53.47333674641213</v>
+        <v>53.47333674641212</v>
       </c>
       <c r="J23" t="n">
         <v>164.3597605901937</v>
       </c>
       <c r="K23" t="n">
-        <v>254.6609673883985</v>
+        <v>254.6609673883984</v>
       </c>
       <c r="L23" t="n">
         <v>321.9865560840997</v>
       </c>
       <c r="M23" t="n">
-        <v>363.4703500581239</v>
+        <v>363.4703500581238</v>
       </c>
       <c r="N23" t="n">
-        <v>370.1089973504953</v>
+        <v>370.1089973504952</v>
       </c>
       <c r="O23" t="n">
-        <v>347.2945625034215</v>
+        <v>347.2945625034214</v>
       </c>
       <c r="P23" t="n">
-        <v>290.7448310827102</v>
+        <v>290.7448310827101</v>
       </c>
       <c r="Q23" t="n">
-        <v>210.430117028073</v>
+        <v>210.4301170280729</v>
       </c>
       <c r="R23" t="n">
-        <v>108.3864324623544</v>
+        <v>108.3864324623543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>25.88689132261731</v>
+        <v>25.8868913226173</v>
       </c>
       <c r="J24" t="n">
-        <v>94.80275941981948</v>
+        <v>94.80275941981945</v>
       </c>
       <c r="K24" t="n">
         <v>174.8614592621509</v>
       </c>
       <c r="L24" t="n">
-        <v>242.7262586341679</v>
+        <v>242.7262586341678</v>
       </c>
       <c r="M24" t="n">
-        <v>286.4273588832263</v>
+        <v>286.4273588832262</v>
       </c>
       <c r="N24" t="n">
-        <v>296.3732941339913</v>
+        <v>296.3732941339912</v>
       </c>
       <c r="O24" t="n">
-        <v>267.476474303927</v>
+        <v>267.4764743039269</v>
       </c>
       <c r="P24" t="n">
-        <v>211.5000949385615</v>
+        <v>211.5000949385614</v>
       </c>
       <c r="Q24" t="n">
         <v>133.1884048989774</v>
       </c>
       <c r="R24" t="n">
-        <v>52.17308575183939</v>
+        <v>52.17308575183938</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>51.77019941026947</v>
+        <v>51.77019941026946</v>
       </c>
       <c r="K25" t="n">
-        <v>98.02221579770712</v>
+        <v>98.02221579770709</v>
       </c>
       <c r="L25" t="n">
         <v>130.3434682792092</v>
@@ -36533,10 +36533,10 @@
         <v>122.258860909519</v>
       </c>
       <c r="P25" t="n">
-        <v>101.4847174806345</v>
+        <v>101.4847174806344</v>
       </c>
       <c r="Q25" t="n">
-        <v>61.13850154480902</v>
+        <v>61.138501544809</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>53.47333674641251</v>
+        <v>53.47333674641212</v>
       </c>
       <c r="J44" t="n">
         <v>164.3597605901937</v>
@@ -38028,7 +38028,7 @@
         <v>363.4703500581238</v>
       </c>
       <c r="N44" t="n">
-        <v>370.1089973504952</v>
+        <v>370.1089973504958</v>
       </c>
       <c r="O44" t="n">
         <v>347.2945625034214</v>
